--- a/RPA_민경환_작업폴더/KS_Invoice 추출 및 정리/프로세스_스탭정의서_DK1.xlsx
+++ b/RPA_민경환_작업폴더/KS_Invoice 추출 및 정리/프로세스_스탭정의서_DK1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KS\Desktop\TypeD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkh08\OneDrive\문서\uipath\alphaco5_teamproject2\alphaco5_teamproejct2\RPA_민경환_작업폴더\KS_Invoice 추출 및 정리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07075732-8BD2-438B-82F2-69FE8E836561}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385F5FB3-9D53-45E7-A2EF-DFD0393051FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로세스스탭" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Invoice 추출 및 정리</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 엑셀입력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터풀</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>인보이스 트랙커</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>그냥 인보이스 입력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>환율 태스크</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>필터</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2명</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>민경환</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>김철</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종현</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>유태호</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -214,7 +258,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,6 +436,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -639,33 +695,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -840,7 +893,7 @@
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>5181600</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>137159</xdr:rowOff>
@@ -900,13 +953,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1850572</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>130626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>326572</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>195940</xdr:rowOff>
@@ -987,13 +1040,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1578431</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>206830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1866431</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>59401</xdr:rowOff>
@@ -1011,8 +1064,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8479974" y="3200401"/>
-          <a:ext cx="288000" cy="288000"/>
+          <a:off x="8806225" y="3153977"/>
+          <a:ext cx="288000" cy="278395"/>
           <a:chOff x="1064568" y="1340768"/>
           <a:chExt cx="288000" cy="288000"/>
         </a:xfrm>
@@ -1299,13 +1352,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1872335</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>32653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>340715</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>97967</xdr:rowOff>
@@ -1375,13 +1428,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1600194</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>108856</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1888194</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>194531</xdr:rowOff>
@@ -1399,8 +1452,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8501737" y="6585856"/>
-          <a:ext cx="288000" cy="303389"/>
+          <a:off x="8827988" y="6462591"/>
+          <a:ext cx="288000" cy="298587"/>
           <a:chOff x="1064568" y="1340768"/>
           <a:chExt cx="288000" cy="303389"/>
         </a:xfrm>
@@ -1687,13 +1740,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1872331</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>185050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>340711</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>32650</xdr:rowOff>
@@ -1756,13 +1809,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1600190</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>43540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1888190</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>129214</xdr:rowOff>
@@ -1780,8 +1833,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8501733" y="8262254"/>
-          <a:ext cx="288000" cy="303389"/>
+          <a:off x="8827984" y="8100569"/>
+          <a:ext cx="288000" cy="298586"/>
           <a:chOff x="1064568" y="1340768"/>
           <a:chExt cx="288000" cy="303389"/>
         </a:xfrm>
@@ -2068,13 +2121,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1872330</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>217711</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>391885</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>10887</xdr:rowOff>
@@ -2158,13 +2211,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1600190</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1888190</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>161875</xdr:rowOff>
@@ -2182,8 +2235,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8501733" y="11560629"/>
-          <a:ext cx="288000" cy="303389"/>
+          <a:off x="8827984" y="11326906"/>
+          <a:ext cx="288000" cy="298587"/>
           <a:chOff x="1064568" y="1340768"/>
           <a:chExt cx="288000" cy="303389"/>
         </a:xfrm>
@@ -2470,13 +2523,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1611074</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>119730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>351595</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>185045</xdr:rowOff>
@@ -2494,8 +2547,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8512617" y="14869873"/>
-          <a:ext cx="4618807" cy="500743"/>
+          <a:off x="8838868" y="14564112"/>
+          <a:ext cx="4623609" cy="491139"/>
           <a:chOff x="8512617" y="14869873"/>
           <a:chExt cx="4618807" cy="500743"/>
         </a:xfrm>
@@ -3089,8 +3142,8 @@
       <xdr:rowOff>54273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1157395</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>844430</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>187606</xdr:rowOff>
     </xdr:to>
@@ -3156,8 +3209,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="890970" y="7095771"/>
-          <a:ext cx="288000" cy="303389"/>
+          <a:off x="899615" y="6962901"/>
+          <a:ext cx="288000" cy="293784"/>
           <a:chOff x="1064568" y="1340768"/>
           <a:chExt cx="288000" cy="303389"/>
         </a:xfrm>
@@ -3628,8 +3681,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2708786" y="7587821"/>
-          <a:ext cx="288000" cy="303389"/>
+          <a:off x="2716470" y="7440544"/>
+          <a:ext cx="288000" cy="298586"/>
           <a:chOff x="1064568" y="1340768"/>
           <a:chExt cx="288000" cy="303389"/>
         </a:xfrm>
@@ -3922,7 +3975,7 @@
       <xdr:rowOff>20834</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1238617</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>187606</xdr:rowOff>
@@ -4100,8 +4153,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1077697" y="2950031"/>
-          <a:ext cx="288000" cy="288000"/>
+          <a:off x="1086342" y="2908409"/>
+          <a:ext cx="285438" cy="278395"/>
           <a:chOff x="1064568" y="1340768"/>
           <a:chExt cx="288000" cy="288000"/>
         </a:xfrm>
@@ -4412,8 +4465,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1503073" y="11906320"/>
-          <a:ext cx="288000" cy="303389"/>
+          <a:off x="1509156" y="11667795"/>
+          <a:ext cx="288000" cy="293784"/>
           <a:chOff x="1064568" y="1340768"/>
           <a:chExt cx="288000" cy="303389"/>
         </a:xfrm>
@@ -4866,8 +4919,8 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012372</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>699407</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>127026</xdr:rowOff>
     </xdr:to>
@@ -5094,8 +5147,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1502231" y="15686318"/>
-          <a:ext cx="288000" cy="303389"/>
+          <a:off x="1508314" y="15361347"/>
+          <a:ext cx="288000" cy="298587"/>
           <a:chOff x="1064568" y="1340768"/>
           <a:chExt cx="288000" cy="303389"/>
         </a:xfrm>
@@ -5389,7 +5442,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>217713</xdr:colOff>
+      <xdr:colOff>204105</xdr:colOff>
       <xdr:row>94</xdr:row>
       <xdr:rowOff>171257</xdr:rowOff>
     </xdr:to>
@@ -5432,13 +5485,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1904986</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>10874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>373366</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>76188</xdr:rowOff>
@@ -5519,13 +5572,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1632845</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>87078</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1920845</xdr:colOff>
       <xdr:row>83</xdr:row>
       <xdr:rowOff>172752</xdr:rowOff>
@@ -5543,8 +5596,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8534388" y="18320649"/>
-          <a:ext cx="288000" cy="303389"/>
+          <a:off x="8860639" y="17938049"/>
+          <a:ext cx="288000" cy="298585"/>
           <a:chOff x="1064568" y="1340768"/>
           <a:chExt cx="288000" cy="303389"/>
         </a:xfrm>
@@ -5956,8 +6009,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1322263" y="32602708"/>
-          <a:ext cx="1573331" cy="320348"/>
+          <a:off x="1330908" y="31898418"/>
+          <a:ext cx="1572370" cy="320268"/>
           <a:chOff x="1064568" y="1340768"/>
           <a:chExt cx="584050" cy="288000"/>
         </a:xfrm>
@@ -6251,7 +6304,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>217714</xdr:colOff>
+      <xdr:colOff>204106</xdr:colOff>
       <xdr:row>166</xdr:row>
       <xdr:rowOff>84172</xdr:rowOff>
     </xdr:to>
@@ -6300,7 +6353,7 @@
       <xdr:rowOff>21770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>326571</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>32657</xdr:rowOff>
@@ -6478,8 +6531,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="751103" y="17319163"/>
-          <a:ext cx="288000" cy="303389"/>
+          <a:off x="759748" y="16960575"/>
+          <a:ext cx="288000" cy="293783"/>
           <a:chOff x="1064568" y="1340768"/>
           <a:chExt cx="288000" cy="303389"/>
         </a:xfrm>
@@ -6926,13 +6979,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>4450960</xdr:colOff>
       <xdr:row>148</xdr:row>
       <xdr:rowOff>3823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>212000</xdr:colOff>
       <xdr:row>150</xdr:row>
       <xdr:rowOff>62733</xdr:rowOff>
@@ -7027,13 +7080,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>3587773</xdr:colOff>
       <xdr:row>148</xdr:row>
       <xdr:rowOff>73626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>5153420</xdr:colOff>
       <xdr:row>149</xdr:row>
       <xdr:rowOff>182662</xdr:rowOff>
@@ -7051,8 +7104,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10489316" y="32676340"/>
-          <a:ext cx="1565647" cy="326751"/>
+          <a:off x="10815567" y="31976773"/>
+          <a:ext cx="1565647" cy="321948"/>
           <a:chOff x="1064568" y="1340768"/>
           <a:chExt cx="584050" cy="288000"/>
         </a:xfrm>
@@ -7339,14 +7392,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>3621741</xdr:colOff>
       <xdr:row>152</xdr:row>
       <xdr:rowOff>93482</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>570575</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>570576</xdr:colOff>
       <xdr:row>162</xdr:row>
       <xdr:rowOff>100401</xdr:rowOff>
     </xdr:to>
@@ -7389,13 +7442,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>4020925</xdr:colOff>
       <xdr:row>155</xdr:row>
       <xdr:rowOff>86436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>5021517</xdr:colOff>
       <xdr:row>156</xdr:row>
       <xdr:rowOff>64666</xdr:rowOff>
@@ -7573,8 +7626,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="748521" y="34564699"/>
-          <a:ext cx="1568209" cy="326750"/>
+          <a:off x="757166" y="33821909"/>
+          <a:ext cx="1565647" cy="321948"/>
           <a:chOff x="1064568" y="1340768"/>
           <a:chExt cx="584050" cy="288000"/>
         </a:xfrm>
@@ -7861,13 +7914,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>3166431</xdr:colOff>
       <xdr:row>155</xdr:row>
       <xdr:rowOff>60180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>4732078</xdr:colOff>
       <xdr:row>156</xdr:row>
       <xdr:rowOff>169217</xdr:rowOff>
@@ -7885,8 +7938,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10067974" y="34186894"/>
-          <a:ext cx="1565647" cy="326752"/>
+          <a:off x="10394225" y="33453709"/>
+          <a:ext cx="1565647" cy="321949"/>
           <a:chOff x="1064568" y="1340768"/>
           <a:chExt cx="584050" cy="288000"/>
         </a:xfrm>
@@ -8179,8 +8232,8 @@
       <xdr:rowOff>119743</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1012371</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>699406</xdr:colOff>
       <xdr:row>118</xdr:row>
       <xdr:rowOff>81660</xdr:rowOff>
     </xdr:to>
@@ -8383,13 +8436,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1904985</xdr:colOff>
       <xdr:row>112</xdr:row>
       <xdr:rowOff>185040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>373365</xdr:colOff>
       <xdr:row>115</xdr:row>
       <xdr:rowOff>32640</xdr:rowOff>
@@ -8459,13 +8512,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1632844</xdr:colOff>
       <xdr:row>113</xdr:row>
       <xdr:rowOff>43530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1920844</xdr:colOff>
       <xdr:row>114</xdr:row>
       <xdr:rowOff>129204</xdr:rowOff>
@@ -8483,8 +8536,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8534387" y="25026244"/>
-          <a:ext cx="288000" cy="303389"/>
+          <a:off x="8860638" y="24494765"/>
+          <a:ext cx="288000" cy="298586"/>
           <a:chOff x="1064568" y="1340768"/>
           <a:chExt cx="288000" cy="303389"/>
         </a:xfrm>
@@ -8779,8 +8832,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>530552</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>206009</xdr:rowOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>1902</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8981,13 +9034,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1894100</xdr:colOff>
       <xdr:row>130</xdr:row>
       <xdr:rowOff>32636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>362480</xdr:colOff>
       <xdr:row>132</xdr:row>
       <xdr:rowOff>97950</xdr:rowOff>
@@ -9068,13 +9121,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1621959</xdr:colOff>
       <xdr:row>130</xdr:row>
       <xdr:rowOff>108840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1909959</xdr:colOff>
       <xdr:row>131</xdr:row>
       <xdr:rowOff>194515</xdr:rowOff>
@@ -9092,8 +9145,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8523502" y="28792697"/>
-          <a:ext cx="288000" cy="303389"/>
+          <a:off x="8849753" y="28179575"/>
+          <a:ext cx="288000" cy="298587"/>
           <a:chOff x="1064568" y="1340768"/>
           <a:chExt cx="288000" cy="303389"/>
         </a:xfrm>
@@ -9386,7 +9439,7 @@
       <xdr:rowOff>48321</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1621959</xdr:colOff>
       <xdr:row>147</xdr:row>
       <xdr:rowOff>119743</xdr:rowOff>
@@ -9439,13 +9492,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1894100</xdr:colOff>
       <xdr:row>131</xdr:row>
       <xdr:rowOff>65294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>3951514</xdr:colOff>
       <xdr:row>148</xdr:row>
       <xdr:rowOff>43543</xdr:rowOff>
@@ -9522,8 +9575,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3864416" y="28923327"/>
-          <a:ext cx="288000" cy="303389"/>
+          <a:off x="3873701" y="28305403"/>
+          <a:ext cx="288000" cy="298586"/>
           <a:chOff x="1064568" y="1340768"/>
           <a:chExt cx="288000" cy="303389"/>
         </a:xfrm>
@@ -10044,8 +10097,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="955349" y="41531556"/>
-          <a:ext cx="1568209" cy="326750"/>
+          <a:off x="963994" y="40635085"/>
+          <a:ext cx="1565647" cy="321948"/>
           <a:chOff x="1064568" y="1340768"/>
           <a:chExt cx="584050" cy="288000"/>
         </a:xfrm>
@@ -10395,7 +10448,7 @@
       <xdr:rowOff>122298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1043094</xdr:colOff>
       <xdr:row>186</xdr:row>
       <xdr:rowOff>13620</xdr:rowOff>
@@ -10413,8 +10466,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6376428" y="40562727"/>
-          <a:ext cx="1568209" cy="326750"/>
+          <a:off x="6387314" y="39690269"/>
+          <a:ext cx="1883574" cy="317145"/>
           <a:chOff x="1064568" y="1340768"/>
           <a:chExt cx="584050" cy="288000"/>
         </a:xfrm>
@@ -10701,13 +10754,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>357931</xdr:colOff>
       <xdr:row>184</xdr:row>
       <xdr:rowOff>25593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>4696914</xdr:colOff>
       <xdr:row>186</xdr:row>
       <xdr:rowOff>84504</xdr:rowOff>
@@ -11052,8 +11105,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="269549" y="44906128"/>
-          <a:ext cx="1568209" cy="326750"/>
+          <a:off x="269549" y="43937620"/>
+          <a:ext cx="1574292" cy="317144"/>
           <a:chOff x="1064568" y="1340768"/>
           <a:chExt cx="584050" cy="288000"/>
         </a:xfrm>
@@ -11418,8 +11471,8 @@
       <xdr:rowOff>141516</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2677886</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2364921</xdr:colOff>
       <xdr:row>213</xdr:row>
       <xdr:rowOff>191550</xdr:rowOff>
     </xdr:to>
@@ -11491,8 +11544,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1129514" y="47039727"/>
-          <a:ext cx="1568209" cy="326750"/>
+          <a:off x="1138159" y="46023194"/>
+          <a:ext cx="1567248" cy="321947"/>
           <a:chOff x="1064568" y="1340768"/>
           <a:chExt cx="584050" cy="288000"/>
         </a:xfrm>
@@ -11848,13 +11901,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1891514</xdr:colOff>
       <xdr:row>198</xdr:row>
       <xdr:rowOff>176727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>3459723</xdr:colOff>
       <xdr:row>200</xdr:row>
       <xdr:rowOff>68049</xdr:rowOff>
@@ -11872,8 +11925,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8793057" y="43665156"/>
-          <a:ext cx="1568209" cy="326750"/>
+          <a:off x="9119308" y="42725462"/>
+          <a:ext cx="1568209" cy="317146"/>
           <a:chOff x="1064568" y="1340768"/>
           <a:chExt cx="584050" cy="288000"/>
         </a:xfrm>
@@ -12166,7 +12219,7 @@
       <xdr:rowOff>100527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1260808</xdr:colOff>
       <xdr:row>216</xdr:row>
       <xdr:rowOff>209562</xdr:rowOff>
@@ -12184,8 +12237,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6594142" y="47290098"/>
-          <a:ext cx="1568209" cy="326750"/>
+          <a:off x="6605028" y="46268762"/>
+          <a:ext cx="1883574" cy="321947"/>
           <a:chOff x="1064568" y="1340768"/>
           <a:chExt cx="584050" cy="288000"/>
         </a:xfrm>
@@ -12472,13 +12525,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>575645</xdr:colOff>
       <xdr:row>215</xdr:row>
       <xdr:rowOff>3822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>4245428</xdr:colOff>
       <xdr:row>223</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -12707,13 +12760,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>217715</xdr:colOff>
+      <xdr:colOff>258536</xdr:colOff>
       <xdr:row>228</xdr:row>
       <xdr:rowOff>32658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>445664</xdr:colOff>
+      <xdr:colOff>486485</xdr:colOff>
       <xdr:row>246</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -12744,8 +12797,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="892629" y="50052515"/>
-          <a:ext cx="5257149" cy="3886199"/>
+          <a:off x="938893" y="47004515"/>
+          <a:ext cx="5248985" cy="3641271"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12940,8 +12993,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3526965" y="53078703"/>
-          <a:ext cx="424548" cy="303389"/>
+          <a:off x="3534649" y="51927699"/>
+          <a:ext cx="426149" cy="298587"/>
           <a:chOff x="1021024" y="1340768"/>
           <a:chExt cx="424548" cy="303389"/>
         </a:xfrm>
@@ -13228,13 +13281,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>43533</xdr:colOff>
       <xdr:row>239</xdr:row>
       <xdr:rowOff>130584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>4390199</xdr:colOff>
       <xdr:row>241</xdr:row>
       <xdr:rowOff>195898</xdr:rowOff>
@@ -13321,7 +13374,7 @@
       <xdr:rowOff>206788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>152396</xdr:colOff>
       <xdr:row>241</xdr:row>
       <xdr:rowOff>74748</xdr:rowOff>
@@ -13339,8 +13392,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6629391" y="52621502"/>
-          <a:ext cx="424548" cy="303389"/>
+          <a:off x="6640277" y="51484906"/>
+          <a:ext cx="739913" cy="293783"/>
           <a:chOff x="1021024" y="1340768"/>
           <a:chExt cx="424548" cy="303389"/>
         </a:xfrm>
@@ -13628,15 +13681,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>295835</xdr:colOff>
+      <xdr:colOff>324410</xdr:colOff>
       <xdr:row>249</xdr:row>
-      <xdr:rowOff>143435</xdr:rowOff>
+      <xdr:rowOff>152960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>16994</xdr:colOff>
+      <xdr:colOff>45569</xdr:colOff>
       <xdr:row>277</xdr:row>
-      <xdr:rowOff>147565</xdr:rowOff>
+      <xdr:rowOff>157090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -13665,8 +13718,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="968188" y="56307317"/>
-          <a:ext cx="4732430" cy="6279424"/>
+          <a:off x="1010210" y="52740485"/>
+          <a:ext cx="4750359" cy="5871530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13706,8 +13759,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5360888" y="54393954"/>
-          <a:ext cx="424547" cy="303389"/>
+          <a:off x="5370173" y="53214135"/>
+          <a:ext cx="426148" cy="298586"/>
           <a:chOff x="1021024" y="1340768"/>
           <a:chExt cx="424548" cy="303389"/>
         </a:xfrm>
@@ -13994,13 +14047,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>25603</xdr:colOff>
       <xdr:row>259</xdr:row>
       <xdr:rowOff>21084</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>4372269</xdr:colOff>
       <xdr:row>262</xdr:row>
       <xdr:rowOff>116541</xdr:rowOff>
@@ -14115,7 +14168,7 @@
       <xdr:rowOff>97287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>134466</xdr:colOff>
       <xdr:row>260</xdr:row>
       <xdr:rowOff>177023</xdr:rowOff>
@@ -14133,8 +14186,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6611461" y="56866287"/>
-          <a:ext cx="424548" cy="297450"/>
+          <a:off x="6622347" y="55633640"/>
+          <a:ext cx="739913" cy="292648"/>
           <a:chOff x="1021024" y="1340768"/>
           <a:chExt cx="424548" cy="291547"/>
         </a:xfrm>
@@ -14428,7 +14481,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>174894</xdr:colOff>
+      <xdr:colOff>542286</xdr:colOff>
       <xdr:row>298</xdr:row>
       <xdr:rowOff>197324</xdr:rowOff>
     </xdr:to>
@@ -14471,13 +14524,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2924024</xdr:colOff>
       <xdr:row>295</xdr:row>
       <xdr:rowOff>141515</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>4201881</xdr:colOff>
       <xdr:row>297</xdr:row>
       <xdr:rowOff>108858</xdr:rowOff>
@@ -14631,13 +14684,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>4249260</xdr:colOff>
       <xdr:row>295</xdr:row>
       <xdr:rowOff>195253</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>4673808</xdr:colOff>
       <xdr:row>297</xdr:row>
       <xdr:rowOff>63435</xdr:rowOff>
@@ -14655,8 +14708,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11150803" y="64801967"/>
-          <a:ext cx="424548" cy="303611"/>
+          <a:off x="11477054" y="63396429"/>
+          <a:ext cx="424548" cy="294006"/>
           <a:chOff x="1021024" y="1340768"/>
           <a:chExt cx="424548" cy="297586"/>
         </a:xfrm>
@@ -14943,13 +14996,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>591656</xdr:colOff>
       <xdr:row>292</xdr:row>
       <xdr:rowOff>31975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>213922</xdr:colOff>
       <xdr:row>295</xdr:row>
       <xdr:rowOff>127432</xdr:rowOff>
@@ -15030,13 +15083,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>275971</xdr:colOff>
       <xdr:row>292</xdr:row>
       <xdr:rowOff>108177</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>25604</xdr:colOff>
       <xdr:row>293</xdr:row>
       <xdr:rowOff>194073</xdr:rowOff>
@@ -15054,8 +15107,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15080542" y="64061748"/>
-          <a:ext cx="424548" cy="303611"/>
+          <a:off x="15437530" y="62670618"/>
+          <a:ext cx="433192" cy="298808"/>
           <a:chOff x="1021024" y="1340768"/>
           <a:chExt cx="424548" cy="297586"/>
         </a:xfrm>
@@ -15342,13 +15395,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>4765964</xdr:colOff>
       <xdr:row>162</xdr:row>
       <xdr:rowOff>83127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>443346</xdr:colOff>
       <xdr:row>283</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -15397,16 +15450,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>180110</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>208685</xdr:colOff>
       <xdr:row>304</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4432438</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4461013</xdr:colOff>
       <xdr:row>324</xdr:row>
-      <xdr:rowOff>100825</xdr:rowOff>
+      <xdr:rowOff>91300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -15435,8 +15488,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7038110" y="67901127"/>
-          <a:ext cx="4252328" cy="4381880"/>
+          <a:off x="7438160" y="64255650"/>
+          <a:ext cx="4252328" cy="4139425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15447,13 +15500,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>4880135</xdr:colOff>
       <xdr:row>308</xdr:row>
       <xdr:rowOff>129191</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>568079</xdr:colOff>
       <xdr:row>310</xdr:row>
       <xdr:rowOff>16552</xdr:rowOff>
@@ -15471,8 +15524,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11781678" y="67566191"/>
-          <a:ext cx="1566230" cy="322790"/>
+          <a:off x="12107929" y="66098220"/>
+          <a:ext cx="1571032" cy="313185"/>
           <a:chOff x="1064568" y="1340768"/>
           <a:chExt cx="584050" cy="288000"/>
         </a:xfrm>
@@ -15759,13 +15812,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>547933</xdr:colOff>
       <xdr:row>308</xdr:row>
       <xdr:rowOff>32485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>272141</xdr:colOff>
       <xdr:row>315</xdr:row>
       <xdr:rowOff>43542</xdr:rowOff>
@@ -15906,13 +15959,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>4880135</xdr:colOff>
       <xdr:row>316</xdr:row>
       <xdr:rowOff>19069</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>568079</xdr:colOff>
       <xdr:row>317</xdr:row>
       <xdr:rowOff>124144</xdr:rowOff>
@@ -15930,8 +15983,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11781678" y="69197783"/>
-          <a:ext cx="1566230" cy="322790"/>
+          <a:off x="12107929" y="67691393"/>
+          <a:ext cx="1571032" cy="317986"/>
           <a:chOff x="1064568" y="1340768"/>
           <a:chExt cx="584050" cy="288000"/>
         </a:xfrm>
@@ -16218,13 +16271,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>547934</xdr:colOff>
       <xdr:row>315</xdr:row>
       <xdr:rowOff>140078</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>206829</xdr:colOff>
       <xdr:row>322</xdr:row>
       <xdr:rowOff>163286</xdr:rowOff>
@@ -16242,8 +16295,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12652848" y="69101078"/>
-          <a:ext cx="8432781" cy="1547208"/>
+          <a:off x="12957648" y="64869257"/>
+          <a:ext cx="8503538" cy="1451958"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16505,13 +16558,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2699657</xdr:colOff>
       <xdr:row>207</xdr:row>
       <xdr:rowOff>87086</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>250371</xdr:colOff>
       <xdr:row>211</xdr:row>
       <xdr:rowOff>87086</xdr:rowOff>
@@ -16563,13 +16616,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>635199</xdr:colOff>
       <xdr:row>328</xdr:row>
       <xdr:rowOff>21088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>4981865</xdr:colOff>
       <xdr:row>331</xdr:row>
       <xdr:rowOff>116545</xdr:rowOff>
@@ -16632,13 +16685,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>319514</xdr:colOff>
       <xdr:row>328</xdr:row>
       <xdr:rowOff>97290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>744062</xdr:colOff>
       <xdr:row>329</xdr:row>
       <xdr:rowOff>183187</xdr:rowOff>
@@ -16656,8 +16709,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7221057" y="71888576"/>
-          <a:ext cx="424548" cy="303611"/>
+          <a:off x="7547308" y="70324555"/>
+          <a:ext cx="424548" cy="298808"/>
           <a:chOff x="1021024" y="1340768"/>
           <a:chExt cx="424548" cy="297586"/>
         </a:xfrm>
@@ -16942,7 +16995,871 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352050</xdr:colOff>
+      <xdr:row>324</xdr:row>
+      <xdr:rowOff>142500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4990725</xdr:colOff>
+      <xdr:row>348</xdr:row>
+      <xdr:rowOff>82740</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="44" name="잉크 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B157A6A3-63A9-B3F5-B776-51F02144F93D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1704600" y="68446275"/>
+            <a:ext cx="10515600" cy="4969440"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="44" name="잉크 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B157A6A3-63A9-B3F5-B776-51F02144F93D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1695596" y="68437774"/>
+              <a:ext cx="10533248" cy="4986797"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>421436</xdr:colOff>
+      <xdr:row>324</xdr:row>
+      <xdr:rowOff>135771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>435476</xdr:colOff>
+      <xdr:row>324</xdr:row>
+      <xdr:rowOff>149811</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="45" name="잉크 44">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42E4F5B6-C623-DE5A-EBE9-D56727FE553F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4163400" y="66701914"/>
+            <a:ext cx="14040" cy="14040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="45" name="잉크 44">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42E4F5B6-C623-DE5A-EBE9-D56727FE553F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4154760" y="66692914"/>
+              <a:ext cx="31680" cy="31680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>244646</xdr:colOff>
+      <xdr:row>325</xdr:row>
+      <xdr:rowOff>203824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>56451</xdr:colOff>
+      <xdr:row>330</xdr:row>
+      <xdr:rowOff>162848</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="161" name="잉크 160">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6A0CE7F-B5E5-9304-2D7F-AD6667EEAAB4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="12654360" y="66974074"/>
+            <a:ext cx="1172520" cy="979560"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="161" name="잉크 160">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6A0CE7F-B5E5-9304-2D7F-AD6667EEAAB4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12645409" y="66965808"/>
+              <a:ext cx="1190063" cy="996437"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666596</xdr:colOff>
+      <xdr:row>325</xdr:row>
+      <xdr:rowOff>97624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1892756</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>109555</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="170" name="잉크 169">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{100B1593-EB90-281F-116F-D645C70E22B1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4408560" y="66867874"/>
+            <a:ext cx="1226160" cy="828360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="170" name="잉크 169">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{100B1593-EB90-281F-116F-D645C70E22B1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4399920" y="66859587"/>
+              <a:ext cx="1243800" cy="845279"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>340200</xdr:colOff>
+      <xdr:row>330</xdr:row>
+      <xdr:rowOff>26768</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>204583</xdr:colOff>
+      <xdr:row>339</xdr:row>
+      <xdr:rowOff>136684</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="203" name="잉크 202">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87B8D087-D553-7573-ADF9-70CD47CE1AF0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="340200" y="67817554"/>
+            <a:ext cx="16356240" cy="1946880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="203" name="잉크 202">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87B8D087-D553-7573-ADF9-70CD47CE1AF0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="331580" y="67809253"/>
+              <a:ext cx="16373840" cy="1963827"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>435476</xdr:colOff>
+      <xdr:row>348</xdr:row>
+      <xdr:rowOff>99720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>265607</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>14773</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="204" name="잉크 203">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{211AEC2A-1914-0FE3-947F-4F70F8426E9B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4177440" y="71564434"/>
+            <a:ext cx="1789560" cy="119160"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="204" name="잉크 203">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{211AEC2A-1914-0FE3-947F-4F70F8426E9B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4168440" y="71555434"/>
+              <a:ext cx="1807200" cy="136800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2598934</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>55093</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4054774</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>150133</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="205" name="잉크 204">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F8F413A-8BD6-5B74-B7AE-3C9088DB955C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9810720" y="71723914"/>
+            <a:ext cx="1455840" cy="95040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="205" name="잉크 204">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F8F413A-8BD6-5B74-B7AE-3C9088DB955C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9802080" y="71714914"/>
+              <a:ext cx="1473480" cy="112680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>584927</xdr:colOff>
+      <xdr:row>339</xdr:row>
+      <xdr:rowOff>160444</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>389366</xdr:colOff>
+      <xdr:row>343</xdr:row>
+      <xdr:rowOff>84175</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="208" name="잉크 207">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73B7A08D-65F0-06F3-4445-45D44379ED19}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6286320" y="69788194"/>
+            <a:ext cx="6512760" cy="740160"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="208" name="잉크 207">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73B7A08D-65F0-06F3-4445-45D44379ED19}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6277686" y="69779603"/>
+              <a:ext cx="6530388" cy="756997"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>789047</xdr:colOff>
+      <xdr:row>331</xdr:row>
+      <xdr:rowOff>145581</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1124567</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>77207</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="209" name="잉크 208">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DFCF252-666A-728E-6DF3-BFB9487FAAC4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6490440" y="68140474"/>
+            <a:ext cx="335520" cy="339840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="209" name="잉크 208">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DFCF252-666A-728E-6DF3-BFB9487FAAC4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6481800" y="68131834"/>
+              <a:ext cx="353160" cy="357480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-06-13T07:43:49.755"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4206 4573 24575,'-1'4'0,"-1"0"0,1-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-7 4 0,-12 15 0,-13 20 7,-2-1 1,-1-1-1,-82 65 0,-22 21-400,46-39-1737,62-60 2110,2 1 0,2 1 0,-37 47 0,20-18-224,-77 75-1,67-76 23,-48 65 1,0 8-322,-41 57-436,-340 584 33,472-750 1081,-29 48-52,-104 179 522,-54 67-212,81-139-225,81-118 980,-2-2-1,-3-2 1,-93 92-1,-89 77-1147,119-118 0,62-59 0,-60 49 0,-60 49 0,57-47 0,29-31 0,-89 58 0,165-122-114,0-1 1,-1 0-1,1 0 0,-1 1 0,1-1 1,0-1-1,-1 1 0,0 0 0,1-1 1,-1 1-1,-3-1 0,-6-1-6712</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="448.07">504 8552 24575,'-4'2'0,"0"0"0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 1 0,-4 6 0,2-2 0,-59 94 0,4 3 0,-54 137 0,86-180 0,20-48 0,-51 103 0,46-93 0,1 0 0,1 0 0,-7 29 0,9-26 0,-2-1 0,-20 43 0,23-58 0,4-6 0,0 0 0,0 1 0,0-1 0,0 1 0,-3 12 0,6-17 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,55 3 0,-31-3 0,0 2 0,34 6 0,-22-1 0,43 1 0,28 5 0,-57-6 0,0-2 0,0-2 0,0-2 0,57-8 0,-83 3 0,1-2 0,-1-2 0,0 0 0,-1-2 0,33-16 0,-11 4 0,-15 6 0,-2-1 0,57-43 0,-58 39 0,-17 11 0,0-1 0,-2 0 0,1-1 0,-1 0 0,11-18 0,26-30 0,-22 33-1365,-15 15-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1379.22">5872 4250 24575,'0'5'0,"1"0"0,0-1 0,0 1 0,0 0 0,1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,7 5 0,4 5 0,1-2 0,24 16 0,87 50-1596,4-6-1,221 88 1,829 269-3891,-1142-416 5471,1121 337-2151,-435-138 1104,107 54 1974,703 253-1945,-918-280 900,-126-46-134,-39-6 400,-192-76 16,283 121 53,127 52 295,-359-157 530,448 173-857,76-17 1244,-584-212 939,116 42 45,-318-98-268,-31-8-1545,0-2 0,0 0 0,1-1 0,-1-1 0,26 1 0,-32-3-572,1-1-1,0 2 1,0-1-1,-1 2 0,1 0 1,19 7-1,-31-10-32,-1 0 0,1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,0 1 0,0-1 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 1 0,0-1 0,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,0 1 0,0-1 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 1 0,0-1 0,0 0-1,0 0 1,0 0 0,1 0 0,-1 1 0,0-1-96,-11 1-6709</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1905.11">17375 7826 24575,'2'8'0,"1"-1"0,0 0 0,0 0 0,0 0 0,1 0 0,0 0 0,6 7 0,-7-10 0,194 266 0,-43-65 0,-63-55 0,-77-129 0,-2 2 0,20 46 0,1 3 0,-26-62 0,-1 0 0,1 0 0,16 15 0,-16-18 0,-1 0 0,0 1 0,0 0 0,0 0 0,-1 0 0,6 13 0,3 20 0,11 48 0,5 18 0,-12-74 0,-9-15 0,-10-18 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,0-1 0,0-1 0,-26-11 0,-1 0 0,-32-8 0,-16-8 0,34 13-123,-1 3 0,0 2 0,-59-9 0,-17-3-56,64 13-104,0 2 1,-85 0-1,-13-1-122,-229-18-1892,-195 14-2483,348 16 3685,-520-3 3322,713-3 2232,-17-7-3921,40 6-331,-10-1-5733</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="469783.16">11319 1 24575,'-1'0'0,"0"0"0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 2 0,-9 33 0,5-18 0,-7 19 0,2 1 0,-5 54 0,0-5 0,3-23 0,3 0 0,-1 104 0,7-128-151,-2 0-1,-15 71 1,9-64-536,-5 68 1,-12 116-529,-1 38 162,-15 172-1703,6-120 593,-9 30 1277,9-95 654,21-124 312,-16 168 345,-7-66 35,23-160-439,-8 98 1,-5 57 286,2-30 1317,24-178-1661,-1 1-1,-1-1 1,-9 25-1,-6 23 1842,17-50-4464</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="471068.26">8595 8525 24575,'1'-1'0,"-1"0"0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,3 0 0,39-5 0,-38 5 0,39-3 0,101-11 0,-85 6 0,1 3 0,-1 2 0,94 9 0,-112 0 24,-1 1 0,62 19 0,21 5-865,-44-13 748,104 40 1,-35-10 123,-77-28-31,-2 4 0,103 49 0,-92-33-30,-24-13-34,-1 2 0,-2 3-1,89 67 1,-121-80-80,-5-6 307,0 0 0,-2 2 0,0 0 0,-1 0 0,0 2 0,-1 0 0,17 29 0,-19-22-145,-2 0 0,11 37-1,11 28-20,-27-76 3,1 0 0,-2 0 0,0 1 0,0-1 0,-1 1 0,0 17 0,-4 89 0,-1-46 0,3-25 0,-5 124 0,3-150 0,-2-1 0,0 1 0,-2-1 0,0 1 0,-14 30 0,11-33 0,-1 0 0,-1-1 0,0 0 0,-2-1 0,-20 24 0,24-32 0,-1 0 0,-1-1 0,1 0 0,-1-1 0,0 0 0,-1-1 0,0-1 0,0 1 0,-25 7 0,8-6 0,0-1 0,-1-1 0,1-1 0,-1-2 0,-57-2 0,-416-2 0,483 0 0,1-2 0,0-1 0,1 0 0,-1-1 0,1-1 0,0-1 0,-33-17 0,36 15 0,-2 2 0,1-1 0,-1 2 0,0 0 0,0 2 0,0-1 0,-1 2 0,0 0 0,-17 1 0,32 2 0,1 0 0,0 0 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1 0 0,-1 2 0,1 1 0,0-1 0,0 1 0,0-1 0,1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,0 5 0,0 5 0,2 1 0,0 0 0,0-1 0,1 0 0,9 25 0,90 220 0,52 124-1038,-61-159 573,-44-101 465,95 221 0,-70-215 467,-54-98-225,0 1 0,-2 1 0,25 68 1,-39-88-234,-1 0 0,0 0 0,-1 0 0,-1 0 1,0 0-1,-1 0 0,-2 22 0,1-28-9,0-1-1,0 0 1,-1 0 0,0 0-1,0 0 1,-1 0 0,0-1-1,0 1 1,0-1 0,-1 0-1,0 0 1,0 0 0,0 0-1,-1-1 1,0 1 0,-7 5-1,-37 22 1,-1-3 0,-59 27 0,26-14 0,-27 12-385,-2-5 0,-223 67 0,271-97 244,26-7 152,-41 7-1,-67 15-65,102-23 60,0-1-1,-1-2 1,-84 5 0,-401-15 1284,501-1-1286,0-1 0,1-2-1,0-1 1,0-1 0,0-1 0,1-2-1,-49-24 1,25 4-3,34 19 0,-1 1 0,-25-10 0,23 10 0,0 0 0,1-1 0,-32-25 0,-1 1 0,25 20 0,0 1 0,-1 2 0,-39-12 0,-91-29-1365,141 47-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="471923.01">24489 8176 24575,'-2'0'0,"-1"1"0,1 0 0,0-1 0,-1 1 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-2 3 0,-29 35 0,18-22 0,-109 116 0,-93 106-760,-141 173-1848,54-7 2608,-105 160-2031,213-290 1963,44-19 857,90-146-688,-17 32 1827,43-74-314,34-65-1535,0 1 1,0 0 0,1-1-1,-1 1 1,1 0 0,0 0-1,0 0 1,1 0 0,0 0-1,-1 0 1,2 0 0,0 9-1,0-11-79,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 0 0,4 1 0,71-1 0,-60-1 0,170-14-1619,221-46 0,-102 11 424,-51 30 169,-112 11 290,699-28-493,-265 69-881,-181 29 1793,-393-61 317,355 85 0,-168-36 0,70 27 2709,-95-24-864,137 43 3256,-281-91-5068,-1-1-1,1 0 1,0-2 0,0 0 0,40-5-1,-59 4-32,0-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,0-1 0,2-1 0,-1-2 0,1 1 0,-1-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,2-10 0,0-8 0,-1 0 0,-1 0 0,-1-30 0,-1 49 0,-2-384-1365,2 361-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="472296.06">25388 8929 24575,'-20'56'0,"-4"164"-898,-65 373-2724,64-363 1132,-5 20 1899,-26 184 591,15-91 93,-3 29-1346,7-46 784,18-168-626,1 31 1050,-8 70 8,-30 189 556,33-248-368,5-66 407,4-45 542,-3 151 0,18-196-911,1 37 1437,-4 1 1,-13 87-1,9-125-989,2 0 0,2 51 0,7-199-993,19-111-1,-20 185 278,20-150-1976,-16 142-3289</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="473202.04">23140 1131 24575,'5'-2'0,"0"-1"0,0 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 0 0,0 0 0,0 0 0,6-9 0,1 2 0,15-14-53,1 2-1,1 0 1,1 2-1,1 2 1,0 0-1,2 2 1,0 2 0,0 1-1,2 1 1,56-13-1,-51 17-18,7-4 61,1 3-1,1 2 1,81-4 0,197 11-992,284 5-1566,-150 52-125,-184 0 2215,-202-39 680,-1 4-1,-1 3 1,-1 3 0,-2 4-1,93 54 1,-147-75 128,-1 1-1,0 0 1,-1 1 0,0 0 0,0 1-1,-2 1 1,0 0 0,0 1 0,-1 0-1,-1 0 1,-1 1 0,0 0 0,-1 1-1,0-1 1,-2 2 0,0-1 0,0 0 0,1 25-1,14 90-549,-6-49-187,5 144 1,-18-119 407,-4 161 0,-3-225 0,-1-1 0,-2-1 0,-2 1 0,-2-2 0,-23 53 0,-3-6 345,-3-1 1,-93 142-1,105-189-345,-1-2 0,-3-1 0,-1-1 0,-56 45 0,-57 57 0,103-93 0,29-30 0,0 2 0,0 0 0,2 0 0,-14 21 0,-4 11 0,25-39 0,-1 0 0,1 0 0,0 1 0,1 0 0,1 1 0,0-1 0,0 1 0,1 0 0,0 0 0,1 0 0,0 1 0,0 13 0,2-18 0,1 1 0,1-1 0,-1 1 0,1-1 0,1 0 0,-1 0 0,2 1 0,-1-1 0,1 0 0,5 11 0,-1-8 0,1 1 0,0-1 0,0-1 0,1 1 0,18 15 0,16 15 0,81 70 0,-104-95 0,1-2 0,0 0 0,1-2 0,39 17 0,53 24-201,-79-35-24,2-1 0,69 22 0,-2-16 167,0-4-1,153 8 1,281-23-1662,-286-6 1333,-155-3-1710,191-35 0,-51 4 1119,-173 26 978,70-21-1,29-4 2,-37 10 421,0-5 0,239-92 0,-353 116-7,0 0 1,-1-1-1,1 0 1,-1-1-1,-1 0 1,0-1 0,0 0-1,0 0 1,-1-1-1,-1-1 1,1 1-1,-2-2 1,0 1 0,0-1-1,-1 0 1,6-16-1,6-7-367,-13 27-331,0 0 1,-1-1-1,0 0 1,3-11-1,-3 1-6543</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-06-13T07:56:47.325"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 38 24575,'0'-6'0,"6"-3"0,3-5 0,-1 5 0,-1 11 0,-2 12 0,-2 3-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-06-13T07:56:55.275"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#00A0D7"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 988 24575,'1'-2'0,"-1"1"0,0 0 0,1-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,1-1 0,2 1 0,40-9 0,-40 9 0,53-6 0,1 3 0,94 8 0,-137-2 0,0 0 0,-1 1 0,1 0 0,-1 1 0,0 1 0,0 0 0,0 1 0,-1 0 0,0 2 0,-1-1 0,0 2 0,0-1 0,0 2 0,-2 0 0,1 0 0,-1 1 0,-1 0 0,0 1 0,0 0 0,-2 0 0,1 1 0,-2 0 0,0 0 0,0 1 0,6 27 0,4 22 0,-6-28 0,-2 1 0,-1 0 0,4 67 0,-10-60 0,1 12 0,-7 63 0,3-101 0,-1-1 0,0 1 0,-1-1 0,-1 0 0,0 0 0,-2-1 0,-14 30 0,-121 202 0,135-238 0,0 1 0,-1-2 0,0 1 0,0-1 0,-17 14 0,16-15 0,1 0 0,0 0 0,0 1 0,0 0 0,1 1 0,-6 10 0,12-19 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,3-1 0,9 0 0,0 0 0,0-1 0,16-5 0,-24 6 0,50-15 0,-20 6 0,1 1 0,0 1 0,36-2 0,-38 7 0,47-13 0,-48 9 0,53-5 0,-44 8 0,62-16 0,-20 3 0,-70 13 0,1 0 0,-1-1 0,0-1 0,0 0 0,-1 0 0,0-1 0,0-1 0,0 0 0,-1-1 0,0-1 0,-1 1 0,0-2 0,0 1 0,-1-1 0,14-24 0,-16 23 0,-1-1 0,-1 1 0,0-1 0,-1 0 0,-1-1 0,3-14 0,5-16 0,-4 6-121,-1 0 1,-1-1-1,-2 0 0,-4-68 0,1 74-640,-1-1-6065</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="354.91">1711 594 24575,'2'127'0,"-5"141"0,-14-172 0,11-71 0,1 1 0,-2 27 0,-13 129 0,10-104 0,-2 96 0,14 7 0,0-321 0,-5-182 0,-11 259-1365,6 38-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="714.23">1598 632 24575,'30'-12'0,"-8"1"0,1 5 0,0 1 0,1 0 0,0 2 0,34 0 0,-46 3 0,1 1 0,-1-1 0,0 2 0,0 0 0,0 0 0,0 2 0,0-1 0,0 1 0,-1 1 0,16 9 0,-15-8 0,-1 1 0,0 1 0,-1 0 0,0 0 0,0 1 0,0 1 0,-1 0 0,-1 0 0,1 1 0,-2 0 0,1 0 0,9 22 0,17 31 0,-27-52 0,0 0 0,0 1 0,-1 0 0,0 0 0,-2 1 0,1 0 0,3 18 0,-3 26 0,-2 0 0,-2 0 0,-9 81 0,3-115 0,0-1 0,-1 0 0,-1 0 0,-2 0 0,0-1 0,-1 0 0,-14 21 0,-1 6 0,19-39 0,-1 1 0,0-1 0,0 0 0,-18 17 0,16-17 0,-1 0 0,1 1 0,-13 21 0,-18 42 0,-59 103 0,87-155 0,1 1 0,1 0 0,-8 27 0,10-28 0,0 0 0,-1 0 0,-22 37 0,-46 83 0,77-142 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,-1 0 0,-9-13 0,-1-16 0,3-12 0,3 0 0,1-1 0,2 1 0,2-1 0,7-61 0,9 31-84,-10 49-1197,1-4-5545</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1088.17">2510 712 24575,'97'-2'0,"108"5"0,-202-3 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,-1 0 0,1 3 0,-4 13 0,0 0 0,-1-1 0,-1 0 0,0 0 0,-11 21 0,7-16 0,-5 9-1365,0-7-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1431.13">2358 1542 24575,'6'-2'0,"1"0"0,-1 0 0,0-1 0,0 0 0,0 0 0,0-1 0,9-6 0,0 0 0,10-7 0,37-32 0,7-5 0,51-43 0,-109 89-68,0 0 0,0-1-1,0 0 1,-1-1 0,0-1 0,-1 0-1,-1 0 1,1 0 0,-2-1 0,1-1-1,-2 1 1,1-1 0,-2 0 0,0-1-1,0 1 1,-1-1 0,-1 0-1,0 0 1,1-23 0,-3 4-6758</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1857.16">3231 1 24575,'1'0'0,"1"0"0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1 2 0,7 42 0,-7-42 0,6 102 0,-7 146 0,-3-93 0,3 473 0,-2-608 0,0 0 0,-2 0 0,-7 31 0,4-26 0,-5 53 0,10 124-82,3-138-1201,-1-34-5543</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2204.31">2852 2253 24575,'-2'0'0,"0"1"0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1 3 0,-23 44 0,20-37 0,-10 19 0,3-10 0,1 0 0,1 1 0,1 0 0,1 1 0,1 0 0,0 0 0,2 1 0,-3 33 0,6-26 0,0 69 0,2-94 0,0 0 0,0-1 0,1 1 0,0 0 0,1-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,1 0 0,0 0 0,6 8 0,-6-10 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,0 0 0,0-1 0,-1 1 0,1 0 0,-1-1 0,6-4 0,6-2 0,-1 0 0,0-2 0,0 0 0,23-22 0,29-25 0,-48 43 0,0 0 0,-2-1 0,0-1 0,21-27 0,17-22 0,-40 51 0,-2 0 0,1-2 0,-2 1 0,15-27 0,-17 24 0,-1 1 0,-1-1 0,-1 0 0,0-1 0,-2 1 0,0-1 0,0 0 0,-2 0 0,0-37 0,-1 24 0,0 0 0,-1 0 0,-9-61 0,7 84 0,1 1 0,-2-1 0,1 0 0,-1 0 0,-1 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,0 1 0,0-1 0,-1 1 0,0 1 0,-12-12 0,-127-107 0,135 119 0,0 0 0,0 1 0,-1 1 0,1 0 0,-1 1 0,0 0 0,0 0 0,0 1 0,0 1 0,-13-1 0,4 1 0,1 1 0,-1 1 0,1 1 0,-39 9 0,48-8 0,0 1 0,0 1 0,0 0 0,1 0 0,0 1 0,0 0 0,0 0 0,-12 12 0,-60 71 0,33-33 0,9-9 0,3 1 0,-51 87 0,48-52-1365,26-55-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-06-13T07:56:51.120"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#00A0D7"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1929 1215 24575,'6'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="935.66">1 1058 24575,'0'-15'0,"0"0"0,1 1 0,0-1 0,1 1 0,1-1 0,0 1 0,1 0 0,0 0 0,1 0 0,0 1 0,11-19 0,15-37 0,-26 53 0,2 0 0,0 0 0,0 1 0,1 1 0,17-23 0,39-41 0,69-75 0,-77 101-102,1 2-1,71-44 1,-103 75-175,28-20 248,2 3 0,1 2 0,60-26 0,-68 35 103,-34 17-11,0 1 0,0 0 1,0 1-1,1 0 1,17-3-1,-28 8-53,0 1-1,-1-1 1,1 1-1,0 0 1,0 0-1,0 1 1,0-1-1,0 1 1,0 0-1,-1 0 0,1 0 1,0 0-1,0 1 1,-1 0-1,1-1 1,-1 1-1,0 1 1,1-1-1,-1 0 1,0 1-1,0 0 0,-1 0 1,1 0-1,0 0 1,2 4-1,3 7-9,0 0 0,-1 0 0,-1 1 0,0 0 0,-1 1 0,0-1 0,4 32 0,-5-25 0,1-1 0,1 0 0,14 32 0,-6-17 1,-2 0-1,-1 0 0,-1 2 1,8 67-1,1-1-590,27 53 461,-31-112 132,-1 0 1,10 63 0,-5-7-4,-10-64 0,-3 0 0,5 63 0,-10-40 205,-5 234 296,3-285-501,0-1 0,-1 0 0,0 1 0,-1-1 0,0 0 0,0-1 0,0 1 0,-1 0 0,0-1 0,0 0 0,-6 7 0,-8 7 0,0 0 0,-21 18 0,-1-1 0,20-19 0,0-1 0,-31 20 0,27-21 0,-38 36 0,33-24 0,12-11 0,-1 0 0,-1-1 0,-26 19 0,-30 24 0,61-46 0,-1-1 0,-1-1 0,0-1 0,-1 0 0,-21 10 0,21-13 0,0 1 0,1 0 0,0 1 0,0 1 0,1 0 0,-23 23 0,38-34 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,1 0 0,2 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,-1-1 0,4 1 0,65-1 0,-28-8 0,1-2 0,-2-2 0,1-2 0,50-24 0,-30 12 0,141-75 0,-118 56 0,-73 36 0,1 0 0,-2 0 0,1-1 0,19-21 0,22-18 0,-35 32 0,-2-1 0,0 0 0,-1-2 0,-1 1 0,0-2 0,20-40 0,-29 48 0,-1 0 0,0 0 0,-1-1 0,0 1 0,-1-1 0,-1 0 0,0 0 0,0-20 0,10-53 0,-5 56-1365,-1 4-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1341.05">2193 624 24575,'-1'9'0,"0"0"0,-1 0 0,0-1 0,0 1 0,-5 11 0,-7 29 0,5 47 0,4 0 0,8 110 0,0-45 0,-3 99 0,0-761-1365,0 468-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1713.92">2117 33 24575,'6'1'0,"0"0"0,0 0 0,0 1 0,0 0 0,-1 0 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1 1 0,-1-1 0,8 8 0,31 18 0,19 5 0,-44-23 0,0-1 0,0 0 0,1-2 0,31 9 0,-21-7 0,0 1 0,0 1 0,-1 2 0,-1 0 0,0 2 0,29 23 0,-54-37 0,29 17 0,-26-17 0,0 0 0,0 1 0,-1 0 0,1 0 0,0 0 0,-1 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0 1 0,-1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 7 0,1 7 0,-2 0 0,0 1 0,-1-1 0,-1 1 0,-1-1 0,0 1 0,-1-1 0,-2 0 0,-9 29 0,-2-7 0,-1-2 0,-1-1 0,-30 47 0,-105 157 0,-27 76 0,149-265 0,-44 88 0,66-122 0,2 1 0,0 0 0,1 1 0,1 0 0,-4 33 0,7-24 0,7-57 0,5-23 0,9-17 0,36-80 0,-37 88-1365,-12 30-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2245.25">2949 466 24575,'12'0'0,"-1"1"0,1 0 0,-1 0 0,0 1 0,0 1 0,1 0 0,-1 1 0,-1 0 0,1 0 0,-1 1 0,1 1 0,-1 0 0,-1 0 0,1 1 0,-1 1 0,0-1 0,-1 1 0,0 1 0,0 0 0,0 0 0,-1 0 0,-1 1 0,9 15 0,-12-19-54,0 0-1,0 1 0,0-1 1,0 0-1,-1 1 1,0 0-1,-1-1 0,1 1 1,-1 0-1,0 0 1,-1 0-1,0 0 0,0 0 1,0 0-1,-1 0 0,0-1 1,0 1-1,-1 0 1,1 0-1,-2-1 0,1 1 1,-1-1-1,1 0 1,-7 10-1,-7 2-6771</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2246.25">3101 979 24575,'3'-2'0,"-1"1"0,1-1 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,-1 0 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,-1-1 0,2-3 0,7-9 0,41-46 0,-40 50 0,1-1 0,-2 0 0,1-1 0,-2 0 0,0-1 0,11-25 0,53-112 0,-73 151-7,10-24-220,-1 0 1,-1 0 0,-2-1 0,0-1-1,3-40 1,-8 35-6600</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2618.09">3403 72 24575,'2'114'0,"-5"128"0,-3-201 0,-1 0 0,-3 0 0,-14 41 0,3-11 0,5-18 0,-12 56 0,-11 122 0,4-69 0,35-158-65,-1 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,-5 1 0,-15 5-6761</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3005.2">2836 1688 24575,'-12'31'0,"2"-8"0,5 0 0,1 0 0,1 1 0,1-1 0,1 1 0,1 0 0,1 0 0,1-1 0,1 1 0,1-1 0,1 0 0,9 29 0,-12-46 0,1 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,1-1 0,0 1 0,0-1 0,0 0 0,0-1 0,0 0 0,1 1 0,0-2 0,-1 1 0,10 2 0,-11-3 0,1-1 0,0 0 0,-1 0 0,1-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,1-1 0,0 1 0,0-1 0,0 0 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 0 0,0 1 0,-1-2 0,1 1 0,0 0 0,-1-1 0,5-5 0,3-8 0,-1 0 0,-1-1 0,0-1 0,-1 1 0,-1-1 0,-1-1 0,0 1 0,5-38 0,-4 2 0,-2 0 0,-2-56 0,-3 94 0,1 0 0,-1 0 0,-1 0 0,0 0 0,-2 0 0,-6-29 0,8 43 0,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 1 0,0 0 0,0 0 0,-3 1 0,-5 3 0,1-1 0,-1 2 0,1 0 0,0 0 0,0 1 0,1 0 0,-1 0 0,2 1 0,-1 1 0,-9 11 0,-41 35 0,49-46-227,0 0-1,0 1 1,1 0-1,0 1 1,-14 22-1,11-12-6598</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-06-13T07:57:06.682"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#00A0D7"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">14320 1 24575,'7'0'0,"-1"0"0,0 0 0,1 1 0,-1 0 0,0 0 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 1 0,7 5 0,-3 0 0,1 0 0,-2 1 0,1 0 0,13 18 0,11 15 0,-2 2 0,32 55 0,-4 41 0,-44-107 0,-1 0 0,-3 1 0,0 0 0,-2 1 0,10 58 0,-5-8 0,-8-50 0,-1 0 0,1 46 0,-6 586 57,-3-309-972,-1-322 910,-1-1 0,-1 1 0,-2-1 0,-23 68 0,-1 8 745,11-25-610,4-9-124,-46 128 1,-30 9-7,76-179 0,-37 59 0,-10 19 0,49-84 0,-2-1 0,-34 45 0,30-45 0,1 1 0,-17 32 0,-53 107 0,-10 20 0,-27 35 0,41-76 0,53-88 0,-47 122 0,57-131-455,-3-1 0,-36 53 0,48-82-6371</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="358.27">13639 3897 24575,'-13'31'0,"2"-8"0,6 1 0,0 0 0,-2 35 0,-7 38 0,6-65 0,2 0 0,2 1 0,0-1 0,2 1 0,4 58 0,-2-87 0,0 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,0-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,6-2 0,13-1 0,-1-2 0,0 0 0,-1-2 0,40-17 0,-37 14 0,156-71 72,54-19-1434,-211 91 1247,-1-1 0,38-23 1,27-13-153,286-123-1351,-131 59 2758,-188 83-842,108-36 0,-126 50-1366,-4 0-4272</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2134.09">36482 828 24575,'0'751'-640,"-2"-716"381,-2 1 0,-1-1 0,-2 0 0,-1 0 0,-14 37 0,9-30 293,-2 36-232,12-60 119,0 1 0,-1-1 0,-10 29 0,-5-1 158,3 1-1,2 0 1,2 1 0,2 0 0,1 1-1,3 1 1,0 50 0,4-65-205,-1 1 0,-10 38 1,6-33-27,-3 44 0,8-40 180,3-28 16,-2 1 1,0-1-1,-1 0 0,0 1 1,-2-1-1,0 0 0,0-1 1,-8 18-1,5-19 100,0 0-1,1 1 1,0-1 0,1 1-1,1 1 1,1-1 0,0 1-1,1-1 1,0 1-1,2 0 1,0 0 0,1 0-1,0-1 1,1 1 0,6 21-1,-3-22-143,-1 0 0,-1 0 0,0 1 0,-1 0 0,-1-1 0,0 1 0,-2 0 0,1 0 0,-2 0 0,0-1 0,-8 29 0,-69 270 0,66-245 0,11-51 0,-2 0 0,1 0 0,-2-1 0,-13 34 0,0-4 0,1 1 0,-18 90 0,-17 159 0,35-208 0,11-64 0,1 1 0,-2 30 0,5 54 0,3-76 0,-1 1 0,-2 0 0,-2-1 0,-13 64 0,14-92 0,1 0 0,-1-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1-1 0,-1 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,-8 1 0,-11 4 0,0-1 0,0-2 0,-44 6 0,31-6 0,-28 1-583,-128-1 0,187-6 384,-26-1-6627</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2508.93">35156 4880 24575,'-2'7'0,"0"0"0,0 0 0,-1-1 0,1 1 0,-2-1 0,1 0 0,-7 10 0,1-1 0,-7 19 0,2 0 0,1 2 0,-14 63 0,7-24 0,11-41 0,2 1 0,1 0 0,2 1 0,1 0 0,2-1 0,6 70 0,-5-102 0,0 1 0,0-1 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,1 0 0,4-1 0,-1 0 0,0 0 0,0-1 0,0 1 0,0-2 0,0 1 0,0-1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,4-8 0,30-48 6,58-119-1,-33 53-197,-41 84 25,14-28-202,73-100 0,-2 22-64,71-89-1044,-170 226 1174,90-107-431,125-113 0,-146 161-756,115-77 0,176-72 673,-240 148 808,-50 21 17,-49 29 2,49-24 0,528-221 3449,-487 216-2656,27-8 611,-94 37-2249,-32 12-3652</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6765.81">379 4644 24575,'6'0'0,"3"-7"0,6-1 0,6-1 0,7 3 0,-2 1-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9020.05">1 4211 24575,'37'0'0,"0"-3"0,0-1 0,53-12 0,141-25 0,-161 19 0,-50 14 0,0 2 0,1 0 0,25-3 0,75-10-319,-70 9 30,78-3 0,98-7-1149,2 0-550,-155 19 1660,185-13 303,-35-6-1991,327 14 0,-286 9 1203,3173-3-1364,-3113-20 1911,-26-1 855,117-9 426,-331 22-968,59-9-47,111-7 0,869 23 0,-530 3 0,1058-2 5734,-944 0-6264,-465-20-1627,-1 0 2072,686 21-2250,-678-20 1654,-31-1 558,-113 17-174,206-11 262,216-5 35,-219 14 0,-47-13 37,33-2-33,998 17-431,-667 5 285,-337-21 132,-41 1 63,823 14 714,-549 7-776,1247-3 1856,-1553-19-1847,-28 0 0,-37 18 121,-68 2-73,145-18 0,-103-5-107,155-20-27,-23 5 86,-150 19 0,178-7 0,-198 21 0,89-16 0,-92 9 0,29-7 211,65-6 210,7 4-421,21-1 0,853 20 720,-503 4-448,-280-1-559,309-6-754,-174-29 612,-151 11 171,80-2-432,140-14-760,-64 1 1422,387-49-1329,-392 31-613,-3 24 2080,-194 18 89,208-29-86,255-11 115,-196 14 728,-297 18-735,697-34-1911,442 52 4204,-649 6-1631,1194-3 1693,-1821 3-2055,78 14 0,20 1 299,206-18-772,54 2 13,-256 16-61,30 2 0,-69-19 0,-49-1 0,1 2 0,65 12 0,1 2 762,0-6 1,193-10-1,-129-3-335,664 3 3294,-635-20-4919,-147 10 580,80-1-1,1855 13-1230,-1972 0 1849,0 2 0,44 10 0,-41-6 0,64 4 0,-61-11 63,22 0 333,0 3-1,65 13 0,-113-14-347,35 7 521,-1 2 1,80 31-1,-85-27 106,69 16 0,-96-27-746,67 14 71,-27-6 0,97 34 0,-131-37 0,-7-2 0,0 0 0,1-2 0,-1 0 0,1-1 0,1-2 0,20 3 0,-16-3 0,1 1 0,0 2 0,-1 0 0,0 2 0,31 14 0,2 0 0,-47-17 0,-1-1 0,1 2 0,-1-1 0,0 1 0,9 9 0,33 20 0,-44-31 0,31 15 0,0-1 0,1-2 0,58 15 0,-66-22 0,0 2 0,0 0 0,31 18 0,-33-14 0,1-2 0,59 18 0,-66-24 0,0 0 0,-1 2 0,0 1 0,0 1 0,-1 0 0,28 21 0,-27-20-341,0 0 0,1-2-1,42 13 1,-40-15-6485</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-06-13T07:57:18.597"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#00A0D7"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 214 24575,'36'1'0,"-1"1"0,1 1 0,58 15 0,-47-10 19,91 5 0,-18-3-473,132 13-2306,-14-2 1756,-59-7-1562,229-11-1,-204-6 2875,1377 3-3147,-1321-18 2839,-44 0 0,-107 10 218,0-5 0,0-4 0,193-58 0,-161 41 1053,-94 24 275,0-1 0,-1-3 0,72-31 0,-91 34-1191,-22 9-224,1 0 0,-1 0 0,1 0 1,-1-1-1,0 0 0,0 0 0,0 0 1,0 0-1,-1-1 0,1 0 1,5-7-1,-5 0-6735</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-06-13T07:57:19.635"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#00A0D7"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 263 24575,'29'-12'0,"-7"1"0,6 5 20,1 1 0,-1 1 0,32-1 1,50-6-1162,173-27-1515,-178 26 1777,195 3 0,-182 9 132,127-15 0,123-7-400,-198 18 633,21-13 268,32-2-46,696 18 5412,-438 3-3197,-452-4-1596,0-1 1,0-2-1,-1 0 1,54-19-1,27-6-1321,-81 25-5716</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-06-13T07:57:20.816"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#00A0D7"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 761 24575,'3'1'0,"0"0"0,1 0 0,-1 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 1 0,-1 0 0,0-1 0,0 1 0,3 5 0,30 53 0,-12-15 0,-10-24 0,-2 1 0,0 1 0,-1 0 0,-1 0 0,-2 1 0,9 46 0,7 67 0,-5-41 0,-10-53 0,20 61 0,-18-75 0,-2 1 0,0 0 0,-3 1 0,5 50 0,-10-72 0,-1 6 0,2 1 0,0 0 0,1 0 0,0-1 0,8 27 0,-9-39 0,1 0 0,0 0 0,-1 0 0,1-1 0,1 1 0,-1-1 0,0 0 0,1 1 0,0-1 0,-1 0 0,1-1 0,0 1 0,1 0 0,-1-1 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 0 0,4 0 0,0-1 0,-1 1 0,1-1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 0 0,0-1 0,11-6 0,64-55 0,-39 29 0,344-232 0,-125 112 0,-93 47 120,-1 2-1605,-146 95-5341</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="944.76">15545 721 24575,'2'38'0,"2"0"0,10 51 0,-6-48 0,4 70 0,-12 1 76,-2-65-288,2 0 1,3 0-1,10 59 1,-5-50 211,-2 1 0,-2 0 0,-3 60 0,3 69 0,-2-167 64,1-1 0,0 1 0,1-1 1,1 0-1,0 0 0,1-1 0,1 0 0,1 0 1,0 0-1,1-1 0,15 20 0,-19-31-64,-1 0 0,0-1 0,1 1 0,0-1 0,0-1 0,0 1 0,1-1 0,-1 1 0,1-2 0,0 1 0,0-1 0,-1 0 0,2 0 0,-1 0 0,0-1 0,0 0 0,0 0 0,0-1 0,1 0 0,-1 0 0,0-1 0,0 1 0,1-1 0,6-3 0,-1 1 0,0-1 0,0-1 0,0 0 0,-1-1 0,0 0 0,0-1 0,0 0 0,-1-1 0,0 0 0,17-19 0,171-162-357,-23 24-126,209-239-1375,-135 171 1877,-21 23-240,-181 160-34,154-147-502,-70 74 1250,-51 45-380,-11 17-626,45-46 2260,-40 35-1275,-31 32-656,56-70 1,-83 88-6041</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-06-13T07:57:22.555"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#00A0D7"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 11 24575,'0'834'0,"0"-823"0,1 1 0,0-1 0,5 22 0,-5-31 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,1 1 0,-2-2 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 0 0,0 1 0,1-2 0,16-9 0,0-2 0,-1 0 0,-1-1 0,0-1 0,-1 0 0,0-1 0,15-24 0,-13 19 0,0 1 0,22-20 0,21-23 0,99-106 0,-33 40 0,14-45 0,-78 111 33,37-39-1431,-85 84-5428</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17242,63 +18159,948 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H6"/>
+  <dimension ref="A2:N395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A323" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H355" sqref="H355"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.796875" style="1"/>
-    <col min="3" max="4" width="15.69921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.69921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.69921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="68.296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75"/>
+    <col min="3" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="25.75" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="7" max="7" width="4" customWidth="1"/>
+    <col min="8" max="8" width="68.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="32.4" x14ac:dyDescent="0.4">
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="2:8" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="2:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C6" s="3"/>
+    <row r="4" spans="2:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+    </row>
+    <row r="139" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="G139" s="6"/>
+    </row>
+    <row r="140" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="G140" s="6"/>
+    </row>
+    <row r="141" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="G141" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D142" t="s">
+        <v>7</v>
+      </c>
+      <c r="G142" s="6"/>
+      <c r="H142" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D143" t="s">
+        <v>8</v>
+      </c>
+      <c r="G143" s="6"/>
+      <c r="H143" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D144" t="s">
+        <v>9</v>
+      </c>
+      <c r="G144" s="6"/>
+      <c r="H144" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G145" s="6"/>
+    </row>
+    <row r="146" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G146" s="6"/>
+    </row>
+    <row r="147" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G147" s="6"/>
+    </row>
+    <row r="148" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G148" s="6"/>
+    </row>
+    <row r="149" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G149" s="6"/>
+    </row>
+    <row r="150" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G150" s="6"/>
+    </row>
+    <row r="151" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G151" s="6"/>
+    </row>
+    <row r="152" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G152" s="6"/>
+    </row>
+    <row r="153" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G153" s="6"/>
+    </row>
+    <row r="154" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G154" s="6"/>
+    </row>
+    <row r="155" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G155" s="6"/>
+    </row>
+    <row r="156" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G156" s="6"/>
+    </row>
+    <row r="157" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G157" s="6"/>
+    </row>
+    <row r="158" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G158" s="6"/>
+    </row>
+    <row r="159" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G159" s="6"/>
+    </row>
+    <row r="160" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G160" s="6"/>
+    </row>
+    <row r="161" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G161" s="6"/>
+    </row>
+    <row r="162" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G162" s="6"/>
+    </row>
+    <row r="163" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G163" s="6"/>
+    </row>
+    <row r="164" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G164" s="6"/>
+    </row>
+    <row r="165" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G165" s="6"/>
+    </row>
+    <row r="166" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G166" s="6"/>
+    </row>
+    <row r="167" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G167" s="6"/>
+    </row>
+    <row r="168" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G168" s="6"/>
+    </row>
+    <row r="169" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G169" s="6"/>
+    </row>
+    <row r="170" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G170" s="6"/>
+    </row>
+    <row r="171" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G171" s="6"/>
+    </row>
+    <row r="172" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G172" s="6"/>
+    </row>
+    <row r="173" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G173" s="6"/>
+    </row>
+    <row r="174" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G174" s="6"/>
+    </row>
+    <row r="175" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G175" s="6"/>
+    </row>
+    <row r="176" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G176" s="6"/>
+    </row>
+    <row r="177" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G177" s="6"/>
+    </row>
+    <row r="178" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G178" s="6"/>
+    </row>
+    <row r="179" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G179" s="6"/>
+    </row>
+    <row r="180" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G180" s="6"/>
+    </row>
+    <row r="181" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G181" s="6"/>
+    </row>
+    <row r="182" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G182" s="6"/>
+    </row>
+    <row r="183" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G183" s="6"/>
+    </row>
+    <row r="184" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G184" s="6"/>
+    </row>
+    <row r="185" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G185" s="6"/>
+    </row>
+    <row r="186" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G186" s="6"/>
+    </row>
+    <row r="187" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G187" s="6"/>
+    </row>
+    <row r="188" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G188" s="6"/>
+    </row>
+    <row r="189" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G189" s="6"/>
+    </row>
+    <row r="190" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G190" s="6"/>
+    </row>
+    <row r="191" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G191" s="6"/>
+    </row>
+    <row r="192" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G192" s="6"/>
+    </row>
+    <row r="193" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G193" s="6"/>
+    </row>
+    <row r="194" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G194" s="6"/>
+    </row>
+    <row r="195" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G195" s="6"/>
+    </row>
+    <row r="196" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G196" s="6"/>
+    </row>
+    <row r="197" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G197" s="6"/>
+    </row>
+    <row r="198" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G198" s="6"/>
+    </row>
+    <row r="199" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G199" s="6"/>
+    </row>
+    <row r="200" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G200" s="6"/>
+    </row>
+    <row r="201" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G201" s="6"/>
+    </row>
+    <row r="202" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G202" s="6"/>
+    </row>
+    <row r="203" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G203" s="6"/>
+    </row>
+    <row r="204" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G204" s="6"/>
+    </row>
+    <row r="205" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G205" s="6"/>
+    </row>
+    <row r="206" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G206" s="6"/>
+    </row>
+    <row r="207" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G207" s="6"/>
+    </row>
+    <row r="208" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G208" s="6"/>
+    </row>
+    <row r="209" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G209" s="6"/>
+    </row>
+    <row r="210" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G210" s="6"/>
+    </row>
+    <row r="211" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G211" s="6"/>
+    </row>
+    <row r="212" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G212" s="6"/>
+    </row>
+    <row r="213" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G213" s="6"/>
+    </row>
+    <row r="214" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G214" s="6"/>
+    </row>
+    <row r="215" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G215" s="6"/>
+    </row>
+    <row r="216" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G216" s="6"/>
+    </row>
+    <row r="217" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G217" s="6"/>
+    </row>
+    <row r="218" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G218" s="6"/>
+    </row>
+    <row r="219" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G219" s="6"/>
+    </row>
+    <row r="220" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G220" s="6"/>
+    </row>
+    <row r="221" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G221" s="6"/>
+    </row>
+    <row r="222" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G222" s="6"/>
+    </row>
+    <row r="223" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G223" s="6"/>
+    </row>
+    <row r="224" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G224" s="6"/>
+    </row>
+    <row r="225" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G225" s="6"/>
+    </row>
+    <row r="226" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G226" s="6"/>
+    </row>
+    <row r="227" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G227" s="6"/>
+    </row>
+    <row r="228" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G228" s="6"/>
+    </row>
+    <row r="229" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G229" s="6"/>
+    </row>
+    <row r="230" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G230" s="6"/>
+    </row>
+    <row r="231" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G231" s="6"/>
+    </row>
+    <row r="232" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G232" s="6"/>
+    </row>
+    <row r="233" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G233" s="6"/>
+    </row>
+    <row r="234" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G234" s="6"/>
+    </row>
+    <row r="235" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G235" s="6"/>
+    </row>
+    <row r="236" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G236" s="6"/>
+    </row>
+    <row r="237" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G237" s="6"/>
+    </row>
+    <row r="238" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G238" s="6"/>
+    </row>
+    <row r="239" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G239" s="6"/>
+    </row>
+    <row r="240" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G240" s="6"/>
+    </row>
+    <row r="241" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G241" s="6"/>
+    </row>
+    <row r="242" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G242" s="6"/>
+    </row>
+    <row r="243" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G243" s="6"/>
+    </row>
+    <row r="244" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G244" s="6"/>
+    </row>
+    <row r="245" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G245" s="6"/>
+    </row>
+    <row r="246" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G246" s="6"/>
+    </row>
+    <row r="247" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G247" s="6"/>
+    </row>
+    <row r="248" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G248" s="6"/>
+    </row>
+    <row r="249" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G249" s="6"/>
+    </row>
+    <row r="250" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G250" s="6"/>
+    </row>
+    <row r="251" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G251" s="6"/>
+    </row>
+    <row r="252" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G252" s="6"/>
+    </row>
+    <row r="253" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G253" s="6"/>
+    </row>
+    <row r="254" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G254" s="6"/>
+    </row>
+    <row r="255" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G255" s="6"/>
+    </row>
+    <row r="256" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G256" s="6"/>
+    </row>
+    <row r="257" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G257" s="6"/>
+    </row>
+    <row r="258" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G258" s="6"/>
+    </row>
+    <row r="259" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G259" s="6"/>
+    </row>
+    <row r="260" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G260" s="6"/>
+    </row>
+    <row r="261" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G261" s="6"/>
+    </row>
+    <row r="262" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G262" s="6"/>
+    </row>
+    <row r="263" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G263" s="6"/>
+    </row>
+    <row r="264" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G264" s="6"/>
+    </row>
+    <row r="265" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G265" s="6"/>
+    </row>
+    <row r="266" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G266" s="6"/>
+    </row>
+    <row r="267" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G267" s="6"/>
+    </row>
+    <row r="268" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G268" s="6"/>
+    </row>
+    <row r="269" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G269" s="6"/>
+    </row>
+    <row r="270" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G270" s="6"/>
+    </row>
+    <row r="271" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G271" s="6"/>
+    </row>
+    <row r="272" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G272" s="6"/>
+    </row>
+    <row r="273" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G273" s="6"/>
+    </row>
+    <row r="274" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G274" s="6"/>
+    </row>
+    <row r="275" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G275" s="6"/>
+    </row>
+    <row r="276" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G276" s="6"/>
+    </row>
+    <row r="277" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G277" s="6"/>
+    </row>
+    <row r="278" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G278" s="6"/>
+    </row>
+    <row r="279" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G279" s="6"/>
+    </row>
+    <row r="280" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G280" s="6"/>
+    </row>
+    <row r="281" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G281" s="6"/>
+    </row>
+    <row r="282" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G282" s="6"/>
+    </row>
+    <row r="283" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G283" s="6"/>
+    </row>
+    <row r="284" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G284" s="6"/>
+    </row>
+    <row r="285" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G285" s="6"/>
+    </row>
+    <row r="286" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G286" s="6"/>
+    </row>
+    <row r="287" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G287" s="6"/>
+    </row>
+    <row r="288" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G288" s="6"/>
+    </row>
+    <row r="289" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G289" s="6"/>
+    </row>
+    <row r="290" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G290" s="6"/>
+    </row>
+    <row r="291" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G291" s="6"/>
+    </row>
+    <row r="292" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G292" s="6"/>
+    </row>
+    <row r="293" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G293" s="6"/>
+    </row>
+    <row r="294" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G294" s="6"/>
+    </row>
+    <row r="295" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G295" s="6"/>
+    </row>
+    <row r="296" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G296" s="6"/>
+    </row>
+    <row r="297" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G297" s="6"/>
+    </row>
+    <row r="298" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G298" s="6"/>
+    </row>
+    <row r="299" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G299" s="6"/>
+    </row>
+    <row r="300" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G300" s="6"/>
+    </row>
+    <row r="301" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G301" s="6"/>
+    </row>
+    <row r="302" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G302" s="6"/>
+    </row>
+    <row r="303" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G303" s="6"/>
+    </row>
+    <row r="304" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G304" s="6"/>
+    </row>
+    <row r="305" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G305" s="6"/>
+    </row>
+    <row r="306" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G306" s="6"/>
+    </row>
+    <row r="307" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G307" s="6"/>
+    </row>
+    <row r="308" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G308" s="6"/>
+    </row>
+    <row r="309" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G309" s="6"/>
+    </row>
+    <row r="310" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G310" s="6"/>
+    </row>
+    <row r="311" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G311" s="6"/>
+    </row>
+    <row r="312" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G312" s="6"/>
+    </row>
+    <row r="313" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G313" s="6"/>
+    </row>
+    <row r="314" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G314" s="6"/>
+    </row>
+    <row r="315" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G315" s="6"/>
+    </row>
+    <row r="316" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G316" s="6"/>
+    </row>
+    <row r="317" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G317" s="6"/>
+    </row>
+    <row r="318" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G318" s="6"/>
+    </row>
+    <row r="319" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G319" s="6"/>
+    </row>
+    <row r="320" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G320" s="6"/>
+    </row>
+    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G321" s="6"/>
+    </row>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G322" s="6"/>
+    </row>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G323" s="6"/>
+    </row>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G324" s="6"/>
+    </row>
+    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G325" s="6"/>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G326" s="6"/>
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G327" s="6"/>
+    </row>
+    <row r="328" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F328">
+        <v>1</v>
+      </c>
+      <c r="G328" s="6"/>
+      <c r="H328">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A329" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B329" s="7"/>
+      <c r="C329" s="7"/>
+      <c r="D329" s="7"/>
+      <c r="E329" s="7"/>
+      <c r="F329" s="7"/>
+      <c r="G329" s="6"/>
+    </row>
+    <row r="330" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A330" s="7"/>
+      <c r="B330" s="7"/>
+      <c r="C330" s="7"/>
+      <c r="D330" s="7"/>
+      <c r="E330" s="7"/>
+      <c r="F330" s="7"/>
+      <c r="G330" s="6"/>
+    </row>
+    <row r="331" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A331" s="7"/>
+      <c r="B331" s="7"/>
+      <c r="C331" s="7"/>
+      <c r="D331" s="7"/>
+      <c r="E331" s="7"/>
+      <c r="F331" s="7"/>
+      <c r="G331" s="6"/>
+    </row>
+    <row r="332" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A332" s="7"/>
+      <c r="B332" s="7"/>
+      <c r="C332" s="7"/>
+      <c r="D332" s="7"/>
+      <c r="E332" s="7"/>
+      <c r="F332" s="7"/>
+      <c r="G332" s="6"/>
+    </row>
+    <row r="333" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A333" s="7"/>
+      <c r="B333" s="7"/>
+      <c r="C333" s="7"/>
+      <c r="D333" s="7"/>
+      <c r="E333" s="7"/>
+      <c r="F333" s="7"/>
+      <c r="G333" s="6"/>
+    </row>
+    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A334" s="7"/>
+      <c r="B334" s="7"/>
+      <c r="C334" s="7"/>
+      <c r="D334" s="7"/>
+      <c r="E334" s="7"/>
+      <c r="F334" s="7"/>
+      <c r="G334" s="6"/>
+    </row>
+    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A335" s="7"/>
+      <c r="B335" s="7"/>
+      <c r="C335" s="7"/>
+      <c r="D335" s="7"/>
+      <c r="E335" s="7"/>
+      <c r="F335" s="7"/>
+      <c r="G335" s="6"/>
+    </row>
+    <row r="336" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A336" s="6"/>
+      <c r="B336" s="6"/>
+      <c r="C336" s="6"/>
+      <c r="D336" s="6"/>
+      <c r="E336" s="6"/>
+      <c r="F336" s="6"/>
+      <c r="G336" s="6"/>
+      <c r="H336" s="6"/>
+      <c r="I336" s="6"/>
+      <c r="J336" s="6"/>
+      <c r="K336" s="6"/>
+      <c r="L336" s="6"/>
+      <c r="M336" s="6"/>
+      <c r="N336" s="6"/>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G337" s="6"/>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G338" s="6"/>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>1</v>
+      </c>
+      <c r="G339" s="6"/>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>4</v>
+      </c>
+      <c r="G340" s="6"/>
+      <c r="H340" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G341" s="6"/>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G342" s="6"/>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G343" s="6"/>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F344">
+        <v>3</v>
+      </c>
+      <c r="G344" s="6"/>
+      <c r="H344">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G345" s="6"/>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G346" s="6"/>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G347" s="6"/>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G348" s="6"/>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G349" s="6"/>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G350" s="6"/>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G351" s="6"/>
+      <c r="H351" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G352" s="6"/>
+    </row>
+    <row r="353" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G353" s="6"/>
+    </row>
+    <row r="354" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G354" s="6"/>
+    </row>
+    <row r="355" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G355" s="6"/>
+    </row>
+    <row r="356" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G356" s="6"/>
+    </row>
+    <row r="357" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G357" s="6"/>
+    </row>
+    <row r="358" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G358" s="6"/>
+    </row>
+    <row r="359" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G359" s="6"/>
+    </row>
+    <row r="360" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G360" s="6"/>
+    </row>
+    <row r="361" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G361" s="6"/>
+    </row>
+    <row r="362" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G362" s="6"/>
+    </row>
+    <row r="363" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G363" s="6"/>
+    </row>
+    <row r="364" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G364" s="6"/>
+    </row>
+    <row r="365" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G365" s="6"/>
+    </row>
+    <row r="366" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G366" s="6"/>
+    </row>
+    <row r="367" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G367" s="6"/>
+    </row>
+    <row r="368" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G368" s="6"/>
+    </row>
+    <row r="369" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G369" s="6"/>
+    </row>
+    <row r="370" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G370" s="6"/>
+    </row>
+    <row r="371" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G371" s="6"/>
+    </row>
+    <row r="372" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G372" s="6"/>
+    </row>
+    <row r="373" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G373" s="6"/>
+    </row>
+    <row r="374" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G374" s="6"/>
+    </row>
+    <row r="375" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G375" s="6"/>
+    </row>
+    <row r="376" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G376" s="6"/>
+    </row>
+    <row r="377" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G377" s="6"/>
+    </row>
+    <row r="378" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G378" s="6"/>
+    </row>
+    <row r="379" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G379" s="6"/>
+    </row>
+    <row r="380" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G380" s="6"/>
+    </row>
+    <row r="381" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G381" s="6"/>
+    </row>
+    <row r="382" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G382" s="6"/>
+    </row>
+    <row r="383" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G383" s="6"/>
+    </row>
+    <row r="384" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G384" s="6"/>
+    </row>
+    <row r="385" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G385" s="6"/>
+    </row>
+    <row r="386" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G386" s="6"/>
+    </row>
+    <row r="387" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G387" s="6"/>
+    </row>
+    <row r="388" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G388" s="6"/>
+    </row>
+    <row r="389" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G389" s="6"/>
+    </row>
+    <row r="390" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G390" s="6"/>
+    </row>
+    <row r="391" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G391" s="6"/>
+    </row>
+    <row r="392" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G392" s="6"/>
+    </row>
+    <row r="393" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G393" s="6"/>
+    </row>
+    <row r="394" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G394" s="6"/>
+    </row>
+    <row r="395" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G395" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:G2"/>
+  <mergeCells count="2">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A329:F335"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RPA_민경환_작업폴더/KS_Invoice 추출 및 정리/프로세스_스탭정의서_DK1.xlsx
+++ b/RPA_민경환_작업폴더/KS_Invoice 추출 및 정리/프로세스_스탭정의서_DK1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkh08\OneDrive\문서\uipath\alphaco5_teamproject2\alphaco5_teamproejct2\RPA_민경환_작업폴더\KS_Invoice 추출 및 정리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385F5FB3-9D53-45E7-A2EF-DFD0393051FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271B0FC6-66BB-4F66-B04A-1AEBA8208D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로세스스탭" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Invoice 추출 및 정리</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -67,6 +67,14 @@
   </si>
   <si>
     <t>유태호</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_workitem_noexist_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT_workitem_noexist_2</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -711,11 +719,11 @@
     <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -17008,8 +17016,8 @@
       <xdr:row>348</xdr:row>
       <xdr:rowOff>82740</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="44" name="잉크 43">
@@ -17028,7 +17036,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="44" name="잉크 43">
@@ -17073,8 +17081,8 @@
       <xdr:row>324</xdr:row>
       <xdr:rowOff>149811</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="45" name="잉크 44">
@@ -17093,7 +17101,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="45" name="잉크 44">
@@ -17138,8 +17146,8 @@
       <xdr:row>330</xdr:row>
       <xdr:rowOff>162848</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="161" name="잉크 160">
@@ -17158,7 +17166,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="161" name="잉크 160">
@@ -17203,8 +17211,8 @@
       <xdr:row>329</xdr:row>
       <xdr:rowOff>109555</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="170" name="잉크 169">
@@ -17223,7 +17231,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="170" name="잉크 169">
@@ -17268,8 +17276,8 @@
       <xdr:row>339</xdr:row>
       <xdr:rowOff>136684</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="203" name="잉크 202">
@@ -17288,7 +17296,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="203" name="잉크 202">
@@ -17333,8 +17341,8 @@
       <xdr:row>349</xdr:row>
       <xdr:rowOff>14773</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="204" name="잉크 203">
@@ -17353,7 +17361,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="204" name="잉크 203">
@@ -17398,8 +17406,8 @@
       <xdr:row>349</xdr:row>
       <xdr:rowOff>150133</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="205" name="잉크 204">
@@ -17418,7 +17426,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="205" name="잉크 204">
@@ -17463,8 +17471,8 @@
       <xdr:row>343</xdr:row>
       <xdr:rowOff>84175</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="208" name="잉크 207">
@@ -17483,7 +17491,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="208" name="잉크 207">
@@ -17528,8 +17536,8 @@
       <xdr:row>333</xdr:row>
       <xdr:rowOff>77207</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="209" name="잉크 208">
@@ -17548,7 +17556,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="209" name="잉크 208">
@@ -17611,11 +17619,11 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="448.07">504 8552 24575,'-4'2'0,"0"0"0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 1 0,-4 6 0,2-2 0,-59 94 0,4 3 0,-54 137 0,86-180 0,20-48 0,-51 103 0,46-93 0,1 0 0,1 0 0,-7 29 0,9-26 0,-2-1 0,-20 43 0,23-58 0,4-6 0,0 0 0,0 1 0,0-1 0,0 1 0,-3 12 0,6-17 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,55 3 0,-31-3 0,0 2 0,34 6 0,-22-1 0,43 1 0,28 5 0,-57-6 0,0-2 0,0-2 0,0-2 0,57-8 0,-83 3 0,1-2 0,-1-2 0,0 0 0,-1-2 0,33-16 0,-11 4 0,-15 6 0,-2-1 0,57-43 0,-58 39 0,-17 11 0,0-1 0,-2 0 0,1-1 0,-1 0 0,11-18 0,26-30 0,-22 33-1365,-15 15-5461</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1379.22">5872 4250 24575,'0'5'0,"1"0"0,0-1 0,0 1 0,0 0 0,1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,7 5 0,4 5 0,1-2 0,24 16 0,87 50-1596,4-6-1,221 88 1,829 269-3891,-1142-416 5471,1121 337-2151,-435-138 1104,107 54 1974,703 253-1945,-918-280 900,-126-46-134,-39-6 400,-192-76 16,283 121 53,127 52 295,-359-157 530,448 173-857,76-17 1244,-584-212 939,116 42 45,-318-98-268,-31-8-1545,0-2 0,0 0 0,1-1 0,-1-1 0,26 1 0,-32-3-572,1-1-1,0 2 1,0-1-1,-1 2 0,1 0 1,19 7-1,-31-10-32,-1 0 0,1 0 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,0 1 0,0-1 0,-1 0 0,1 0-1,0 0 1,0 0 0,0 0 0,0 0 0,0 0 0,0 0-1,0 0 1,0 1 0,0-1 0,-1 0 0,1 0 0,0 0-1,0 0 1,0 0 0,0 1 0,0-1 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0-1,0 0 1,0 0 0,0 0 0,0 1 0,0-1 0,0 0-1,0 0 1,0 0 0,1 0 0,-1 1 0,0-1-96,-11 1-6709</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1905.11">17375 7826 24575,'2'8'0,"1"-1"0,0 0 0,0 0 0,0 0 0,1 0 0,0 0 0,6 7 0,-7-10 0,194 266 0,-43-65 0,-63-55 0,-77-129 0,-2 2 0,20 46 0,1 3 0,-26-62 0,-1 0 0,1 0 0,16 15 0,-16-18 0,-1 0 0,0 1 0,0 0 0,0 0 0,-1 0 0,6 13 0,3 20 0,11 48 0,5 18 0,-12-74 0,-9-15 0,-10-18 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,0-1 0,0-1 0,-26-11 0,-1 0 0,-32-8 0,-16-8 0,34 13-123,-1 3 0,0 2 0,-59-9 0,-17-3-56,64 13-104,0 2 1,-85 0-1,-13-1-122,-229-18-1892,-195 14-2483,348 16 3685,-520-3 3322,713-3 2232,-17-7-3921,40 6-331,-10-1-5733</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="469783.16">11319 1 24575,'-1'0'0,"0"0"0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 2 0,-9 33 0,5-18 0,-7 19 0,2 1 0,-5 54 0,0-5 0,3-23 0,3 0 0,-1 104 0,7-128-151,-2 0-1,-15 71 1,9-64-536,-5 68 1,-12 116-529,-1 38 162,-15 172-1703,6-120 593,-9 30 1277,9-95 654,21-124 312,-16 168 345,-7-66 35,23-160-439,-8 98 1,-5 57 286,2-30 1317,24-178-1661,-1 1-1,-1-1 1,-9 25-1,-6 23 1842,17-50-4464</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="471068.26">8595 8525 24575,'1'-1'0,"-1"0"0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,3 0 0,39-5 0,-38 5 0,39-3 0,101-11 0,-85 6 0,1 3 0,-1 2 0,94 9 0,-112 0 24,-1 1 0,62 19 0,21 5-865,-44-13 748,104 40 1,-35-10 123,-77-28-31,-2 4 0,103 49 0,-92-33-30,-24-13-34,-1 2 0,-2 3-1,89 67 1,-121-80-80,-5-6 307,0 0 0,-2 2 0,0 0 0,-1 0 0,0 2 0,-1 0 0,17 29 0,-19-22-145,-2 0 0,11 37-1,11 28-20,-27-76 3,1 0 0,-2 0 0,0 1 0,0-1 0,-1 1 0,0 17 0,-4 89 0,-1-46 0,3-25 0,-5 124 0,3-150 0,-2-1 0,0 1 0,-2-1 0,0 1 0,-14 30 0,11-33 0,-1 0 0,-1-1 0,0 0 0,-2-1 0,-20 24 0,24-32 0,-1 0 0,-1-1 0,1 0 0,-1-1 0,0 0 0,-1-1 0,0-1 0,0 1 0,-25 7 0,8-6 0,0-1 0,-1-1 0,1-1 0,-1-2 0,-57-2 0,-416-2 0,483 0 0,1-2 0,0-1 0,1 0 0,-1-1 0,1-1 0,0-1 0,-33-17 0,36 15 0,-2 2 0,1-1 0,-1 2 0,0 0 0,0 2 0,0-1 0,-1 2 0,0 0 0,-17 1 0,32 2 0,1 0 0,0 0 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1 0 0,-1 2 0,1 1 0,0-1 0,0 1 0,0-1 0,1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,0 5 0,0 5 0,2 1 0,0 0 0,0-1 0,1 0 0,9 25 0,90 220 0,52 124-1038,-61-159 573,-44-101 465,95 221 0,-70-215 467,-54-98-225,0 1 0,-2 1 0,25 68 1,-39-88-234,-1 0 0,0 0 0,-1 0 0,-1 0 1,0 0-1,-1 0 0,-2 22 0,1-28-9,0-1-1,0 0 1,-1 0 0,0 0-1,0 0 1,-1 0 0,0-1-1,0 1 1,0-1 0,-1 0-1,0 0 1,0 0 0,0 0-1,-1-1 1,0 1 0,-7 5-1,-37 22 1,-1-3 0,-59 27 0,26-14 0,-27 12-385,-2-5 0,-223 67 0,271-97 244,26-7 152,-41 7-1,-67 15-65,102-23 60,0-1-1,-1-2 1,-84 5 0,-401-15 1284,501-1-1286,0-1 0,1-2-1,0-1 1,0-1 0,0-1 0,1-2-1,-49-24 1,25 4-3,34 19 0,-1 1 0,-25-10 0,23 10 0,0 0 0,1-1 0,-32-25 0,-1 1 0,25 20 0,0 1 0,-1 2 0,-39-12 0,-91-29-1365,141 47-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="471923.01">24489 8176 24575,'-2'0'0,"-1"1"0,1 0 0,0-1 0,-1 1 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-2 3 0,-29 35 0,18-22 0,-109 116 0,-93 106-760,-141 173-1848,54-7 2608,-105 160-2031,213-290 1963,44-19 857,90-146-688,-17 32 1827,43-74-314,34-65-1535,0 1 1,0 0 0,1-1-1,-1 1 1,1 0 0,0 0-1,0 0 1,1 0 0,0 0-1,-1 0 1,2 0 0,0 9-1,0-11-79,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 0 0,4 1 0,71-1 0,-60-1 0,170-14-1619,221-46 0,-102 11 424,-51 30 169,-112 11 290,699-28-493,-265 69-881,-181 29 1793,-393-61 317,355 85 0,-168-36 0,70 27 2709,-95-24-864,137 43 3256,-281-91-5068,-1-1-1,1 0 1,0-2 0,0 0 0,40-5-1,-59 4-32,0-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,0-1 0,2-1 0,-1-2 0,1 1 0,-1-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,2-10 0,0-8 0,-1 0 0,-1 0 0,-1-30 0,-1 49 0,-2-384-1365,2 361-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="472296.06">25388 8929 24575,'-20'56'0,"-4"164"-898,-65 373-2724,64-363 1132,-5 20 1899,-26 184 591,15-91 93,-3 29-1346,7-46 784,18-168-626,1 31 1050,-8 70 8,-30 189 556,33-248-368,5-66 407,4-45 542,-3 151 0,18-196-911,1 37 1437,-4 1 1,-13 87-1,9-125-989,2 0 0,2 51 0,7-199-993,19-111-1,-20 185 278,20-150-1976,-16 142-3289</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="473202.04">23140 1131 24575,'5'-2'0,"0"-1"0,0 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 0 0,0 0 0,0 0 0,6-9 0,1 2 0,15-14-53,1 2-1,1 0 1,1 2-1,1 2 1,0 0-1,2 2 1,0 2 0,0 1-1,2 1 1,56-13-1,-51 17-18,7-4 61,1 3-1,1 2 1,81-4 0,197 11-992,284 5-1566,-150 52-125,-184 0 2215,-202-39 680,-1 4-1,-1 3 1,-1 3 0,-2 4-1,93 54 1,-147-75 128,-1 1-1,0 0 1,-1 1 0,0 0 0,0 1-1,-2 1 1,0 0 0,0 1 0,-1 0-1,-1 0 1,-1 1 0,0 0 0,-1 1-1,0-1 1,-2 2 0,0-1 0,0 0 0,1 25-1,14 90-549,-6-49-187,5 144 1,-18-119 407,-4 161 0,-3-225 0,-1-1 0,-2-1 0,-2 1 0,-2-2 0,-23 53 0,-3-6 345,-3-1 1,-93 142-1,105-189-345,-1-2 0,-3-1 0,-1-1 0,-56 45 0,-57 57 0,103-93 0,29-30 0,0 2 0,0 0 0,2 0 0,-14 21 0,-4 11 0,25-39 0,-1 0 0,1 0 0,0 1 0,1 0 0,1 1 0,0-1 0,0 1 0,1 0 0,0 0 0,1 0 0,0 1 0,0 13 0,2-18 0,1 1 0,1-1 0,-1 1 0,1-1 0,1 0 0,-1 0 0,2 1 0,-1-1 0,1 0 0,5 11 0,-1-8 0,1 1 0,0-1 0,0-1 0,1 1 0,18 15 0,16 15 0,81 70 0,-104-95 0,1-2 0,0 0 0,1-2 0,39 17 0,53 24-201,-79-35-24,2-1 0,69 22 0,-2-16 167,0-4-1,153 8 1,281-23-1662,-286-6 1333,-155-3-1710,191-35 0,-51 4 1119,-173 26 978,70-21-1,29-4 2,-37 10 421,0-5 0,239-92 0,-353 116-7,0 0 1,-1-1-1,1 0 1,-1-1-1,-1 0 1,0-1 0,0 0-1,0 0 1,-1-1-1,-1-1 1,1 1-1,-2-2 1,0 1 0,0-1-1,-1 0 1,6-16-1,6-7-367,-13 27-331,0 0 1,-1-1-1,0 0 1,3-11-1,-3 1-6543</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="40286.43">11319 1 24575,'-1'0'0,"0"0"0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 2 0,-9 33 0,5-18 0,-7 19 0,2 1 0,-5 54 0,0-5 0,3-23 0,3 0 0,-1 104 0,7-128-151,-2 0-1,-15 71 1,9-64-536,-5 68 1,-12 116-529,-1 38 162,-15 172-1703,6-120 593,-9 30 1277,9-95 654,21-124 312,-16 168 345,-7-66 35,23-160-439,-8 98 1,-5 57 286,2-30 1317,24-178-1661,-1 1-1,-1-1 1,-9 25-1,-6 23 1842,17-50-4464</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="41571.53">8595 8525 24575,'1'-1'0,"-1"0"0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,3 0 0,39-5 0,-38 5 0,39-3 0,101-11 0,-85 6 0,1 3 0,-1 2 0,94 9 0,-112 0 24,-1 1 0,62 19 0,21 5-865,-44-13 748,104 40 1,-35-10 123,-77-28-31,-2 4 0,103 49 0,-92-33-30,-24-13-34,-1 2 0,-2 3-1,89 67 1,-121-80-80,-5-6 307,0 0 0,-2 2 0,0 0 0,-1 0 0,0 2 0,-1 0 0,17 29 0,-19-22-145,-2 0 0,11 37-1,11 28-20,-27-76 3,1 0 0,-2 0 0,0 1 0,0-1 0,-1 1 0,0 17 0,-4 89 0,-1-46 0,3-25 0,-5 124 0,3-150 0,-2-1 0,0 1 0,-2-1 0,0 1 0,-14 30 0,11-33 0,-1 0 0,-1-1 0,0 0 0,-2-1 0,-20 24 0,24-32 0,-1 0 0,-1-1 0,1 0 0,-1-1 0,0 0 0,-1-1 0,0-1 0,0 1 0,-25 7 0,8-6 0,0-1 0,-1-1 0,1-1 0,-1-2 0,-57-2 0,-416-2 0,483 0 0,1-2 0,0-1 0,1 0 0,-1-1 0,1-1 0,0-1 0,-33-17 0,36 15 0,-2 2 0,1-1 0,-1 2 0,0 0 0,0 2 0,0-1 0,-1 2 0,0 0 0,-17 1 0,32 2 0,1 0 0,0 0 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1 0 0,-1 2 0,1 1 0,0-1 0,0 1 0,0-1 0,1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,0 5 0,0 5 0,2 1 0,0 0 0,0-1 0,1 0 0,9 25 0,90 220 0,52 124-1038,-61-159 573,-44-101 465,95 221 0,-70-215 467,-54-98-225,0 1 0,-2 1 0,25 68 1,-39-88-234,-1 0 0,0 0 0,-1 0 0,-1 0 1,0 0-1,-1 0 0,-2 22 0,1-28-9,0-1-1,0 0 1,-1 0 0,0 0-1,0 0 1,-1 0 0,0-1-1,0 1 1,0-1 0,-1 0-1,0 0 1,0 0 0,0 0-1,-1-1 1,0 1 0,-7 5-1,-37 22 1,-1-3 0,-59 27 0,26-14 0,-27 12-385,-2-5 0,-223 67 0,271-97 244,26-7 152,-41 7-1,-67 15-65,102-23 60,0-1-1,-1-2 1,-84 5 0,-401-15 1284,501-1-1286,0-1 0,1-2-1,0-1 1,0-1 0,0-1 0,1-2-1,-49-24 1,25 4-3,34 19 0,-1 1 0,-25-10 0,23 10 0,0 0 0,1-1 0,-32-25 0,-1 1 0,25 20 0,0 1 0,-1 2 0,-39-12 0,-91-29-1365,141 47-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="42426.28">24489 8176 24575,'-2'0'0,"-1"1"0,1 0 0,0-1 0,-1 1 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-2 3 0,-29 35 0,18-22 0,-109 116 0,-93 106-760,-141 173-1848,54-7 2608,-105 160-2031,213-290 1963,44-19 857,90-146-688,-17 32 1827,43-74-314,34-65-1535,0 1 1,0 0 0,1-1-1,-1 1 1,1 0 0,0 0-1,0 0 1,1 0 0,0 0-1,-1 0 1,2 0 0,0 9-1,0-11-79,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 0 0,4 1 0,71-1 0,-60-1 0,170-14-1619,221-46 0,-102 11 424,-51 30 169,-112 11 290,699-28-493,-265 69-881,-181 29 1793,-393-61 317,355 85 0,-168-36 0,70 27 2709,-95-24-864,137 43 3256,-281-91-5068,-1-1-1,1 0 1,0-2 0,0 0 0,40-5-1,-59 4-32,0-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,0-1 0,2-1 0,-1-2 0,1 1 0,-1-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,2-10 0,0-8 0,-1 0 0,-1 0 0,-1-30 0,-1 49 0,-2-384-1365,2 361-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="42799.33">25388 8929 24575,'-20'56'0,"-4"164"-898,-65 373-2724,64-363 1132,-5 20 1899,-26 184 591,15-91 93,-3 29-1346,7-46 784,18-168-626,1 31 1050,-8 70 8,-30 189 556,33-248-368,5-66 407,4-45 542,-3 151 0,18-196-911,1 37 1437,-4 1 1,-13 87-1,9-125-989,2 0 0,2 51 0,7-199-993,19-111-1,-20 185 278,20-150-1976,-16 142-3289</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="43705.31">23140 1131 24575,'5'-2'0,"0"-1"0,0 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 0 0,0 0 0,0 0 0,6-9 0,1 2 0,15-14-53,1 2-1,1 0 1,1 2-1,1 2 1,0 0-1,2 2 1,0 2 0,0 1-1,2 1 1,56-13-1,-51 17-18,7-4 61,1 3-1,1 2 1,81-4 0,197 11-992,284 5-1566,-150 52-125,-184 0 2215,-202-39 680,-1 4-1,-1 3 1,-1 3 0,-2 4-1,93 54 1,-147-75 128,-1 1-1,0 0 1,-1 1 0,0 0 0,0 1-1,-2 1 1,0 0 0,0 1 0,-1 0-1,-1 0 1,-1 1 0,0 0 0,-1 1-1,0-1 1,-2 2 0,0-1 0,0 0 0,1 25-1,14 90-549,-6-49-187,5 144 1,-18-119 407,-4 161 0,-3-225 0,-1-1 0,-2-1 0,-2 1 0,-2-2 0,-23 53 0,-3-6 345,-3-1 1,-93 142-1,105-189-345,-1-2 0,-3-1 0,-1-1 0,-56 45 0,-57 57 0,103-93 0,29-30 0,0 2 0,0 0 0,2 0 0,-14 21 0,-4 11 0,25-39 0,-1 0 0,1 0 0,0 1 0,1 0 0,1 1 0,0-1 0,0 1 0,1 0 0,0 0 0,1 0 0,0 1 0,0 13 0,2-18 0,1 1 0,1-1 0,-1 1 0,1-1 0,1 0 0,-1 0 0,2 1 0,-1-1 0,1 0 0,5 11 0,-1-8 0,1 1 0,0-1 0,0-1 0,1 1 0,18 15 0,16 15 0,81 70 0,-104-95 0,1-2 0,0 0 0,1-2 0,39 17 0,53 24-201,-79-35-24,2-1 0,69 22 0,-2-16 167,0-4-1,153 8 1,281-23-1662,-286-6 1333,-155-3-1710,191-35 0,-51 4 1119,-173 26 978,70-21-1,29-4 2,-37 10 421,0-5 0,239-92 0,-353 116-7,0 0 1,-1-1-1,1 0 1,-1-1-1,-1 0 1,0-1 0,0 0-1,0 0 1,-1-1-1,-1-1 1,1 1-1,-2-2 1,0 1 0,0-1-1,-1 0 1,6-16-1,6-7-367,-13 27-331,0 0 1,-1-1-1,0 0 1,3-11-1,-3 1-6543</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -17674,7 +17682,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">0 988 24575,'1'-2'0,"-1"1"0,0 0 0,1-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,1-1 0,2 1 0,40-9 0,-40 9 0,53-6 0,1 3 0,94 8 0,-137-2 0,0 0 0,-1 1 0,1 0 0,-1 1 0,0 1 0,0 0 0,0 1 0,-1 0 0,0 2 0,-1-1 0,0 2 0,0-1 0,0 2 0,-2 0 0,1 0 0,-1 1 0,-1 0 0,0 1 0,0 0 0,-2 0 0,1 1 0,-2 0 0,0 0 0,0 1 0,6 27 0,4 22 0,-6-28 0,-2 1 0,-1 0 0,4 67 0,-10-60 0,1 12 0,-7 63 0,3-101 0,-1-1 0,0 1 0,-1-1 0,-1 0 0,0 0 0,-2-1 0,-14 30 0,-121 202 0,135-238 0,0 1 0,-1-2 0,0 1 0,0-1 0,-17 14 0,16-15 0,1 0 0,0 0 0,0 1 0,0 0 0,1 1 0,-6 10 0,12-19 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,3-1 0,9 0 0,0 0 0,0-1 0,16-5 0,-24 6 0,50-15 0,-20 6 0,1 1 0,0 1 0,36-2 0,-38 7 0,47-13 0,-48 9 0,53-5 0,-44 8 0,62-16 0,-20 3 0,-70 13 0,1 0 0,-1-1 0,0-1 0,0 0 0,-1 0 0,0-1 0,0-1 0,0 0 0,-1-1 0,0-1 0,-1 1 0,0-2 0,0 1 0,-1-1 0,14-24 0,-16 23 0,-1-1 0,-1 1 0,0-1 0,-1 0 0,-1-1 0,3-14 0,5-16 0,-4 6-121,-1 0 1,-1-1-1,-2 0 0,-4-68 0,1 74-640,-1-1-6065</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="354.91">1711 594 24575,'2'127'0,"-5"141"0,-14-172 0,11-71 0,1 1 0,-2 27 0,-13 129 0,10-104 0,-2 96 0,14 7 0,0-321 0,-5-182 0,-11 259-1365,6 38-5461</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="714.23">1598 632 24575,'30'-12'0,"-8"1"0,1 5 0,0 1 0,1 0 0,0 2 0,34 0 0,-46 3 0,1 1 0,-1-1 0,0 2 0,0 0 0,0 0 0,0 2 0,0-1 0,0 1 0,-1 1 0,16 9 0,-15-8 0,-1 1 0,0 1 0,-1 0 0,0 0 0,0 1 0,0 1 0,-1 0 0,-1 0 0,1 1 0,-2 0 0,1 0 0,9 22 0,17 31 0,-27-52 0,0 0 0,0 1 0,-1 0 0,0 0 0,-2 1 0,1 0 0,3 18 0,-3 26 0,-2 0 0,-2 0 0,-9 81 0,3-115 0,0-1 0,-1 0 0,-1 0 0,-2 0 0,0-1 0,-1 0 0,-14 21 0,-1 6 0,19-39 0,-1 1 0,0-1 0,0 0 0,-18 17 0,16-17 0,-1 0 0,1 1 0,-13 21 0,-18 42 0,-59 103 0,87-155 0,1 1 0,1 0 0,-8 27 0,10-28 0,0 0 0,-1 0 0,-22 37 0,-46 83 0,77-142 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,-1 0 0,-9-13 0,-1-16 0,3-12 0,3 0 0,1-1 0,2 1 0,2-1 0,7-61 0,9 31-84,-10 49-1197,1-4-5545</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1088.17">2510 712 24575,'97'-2'0,"108"5"0,-202-3 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,-1 0 0,1 3 0,-4 13 0,0 0 0,-1-1 0,-1 0 0,0 0 0,-11 21 0,7-16 0,-5 9-1365,0-7-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1088.16">2510 712 24575,'97'-2'0,"108"5"0,-202-3 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,-1 0 0,1 3 0,-4 13 0,0 0 0,-1-1 0,-1 0 0,0 0 0,-11 21 0,7-16 0,-5 9-1365,0-7-5461</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1431.13">2358 1542 24575,'6'-2'0,"1"0"0,-1 0 0,0-1 0,0 0 0,0 0 0,0-1 0,9-6 0,0 0 0,10-7 0,37-32 0,7-5 0,51-43 0,-109 89-68,0 0 0,0-1-1,0 0 1,-1-1 0,0-1 0,-1 0-1,-1 0 1,1 0 0,-2-1 0,1-1-1,-2 1 1,1-1 0,-2 0 0,0-1-1,0 1 1,-1-1 0,-1 0-1,0 0 1,1-23 0,-3 4-6758</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1857.16">3231 1 24575,'1'0'0,"1"0"0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1 2 0,7 42 0,-7-42 0,6 102 0,-7 146 0,-3-93 0,3 473 0,-2-608 0,0 0 0,-2 0 0,-7 31 0,4-26 0,-5 53 0,10 124-82,3-138-1201,-1-34-5543</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2204.31">2852 2253 24575,'-2'0'0,"0"1"0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1 3 0,-23 44 0,20-37 0,-10 19 0,3-10 0,1 0 0,1 1 0,1 0 0,1 1 0,1 0 0,0 0 0,2 1 0,-3 33 0,6-26 0,0 69 0,2-94 0,0 0 0,0-1 0,1 1 0,0 0 0,1-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,1 0 0,0 0 0,6 8 0,-6-10 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,0 0 0,0-1 0,-1 1 0,1 0 0,-1-1 0,6-4 0,6-2 0,-1 0 0,0-2 0,0 0 0,23-22 0,29-25 0,-48 43 0,0 0 0,-2-1 0,0-1 0,21-27 0,17-22 0,-40 51 0,-2 0 0,1-2 0,-2 1 0,15-27 0,-17 24 0,-1 1 0,-1-1 0,-1 0 0,0-1 0,-2 1 0,0-1 0,0 0 0,-2 0 0,0-37 0,-1 24 0,0 0 0,-1 0 0,-9-61 0,7 84 0,1 1 0,-2-1 0,1 0 0,-1 0 0,-1 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,0 1 0,0-1 0,-1 1 0,0 1 0,-12-12 0,-127-107 0,135 119 0,0 0 0,0 1 0,-1 1 0,1 0 0,-1 1 0,0 0 0,0 0 0,0 1 0,0 1 0,-13-1 0,4 1 0,1 1 0,-1 1 0,1 1 0,-39 9 0,48-8 0,0 1 0,0 1 0,0 0 0,1 0 0,0 1 0,0 0 0,0 0 0,-12 12 0,-60 71 0,33-33 0,9-9 0,3 1 0,-51 87 0,48-52-1365,26-55-5461</inkml:trace>
@@ -17742,10 +17750,10 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">14320 1 24575,'7'0'0,"-1"0"0,0 0 0,1 1 0,-1 0 0,0 0 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 1 0,7 5 0,-3 0 0,1 0 0,-2 1 0,1 0 0,13 18 0,11 15 0,-2 2 0,32 55 0,-4 41 0,-44-107 0,-1 0 0,-3 1 0,0 0 0,-2 1 0,10 58 0,-5-8 0,-8-50 0,-1 0 0,1 46 0,-6 586 57,-3-309-972,-1-322 910,-1-1 0,-1 1 0,-2-1 0,-23 68 0,-1 8 745,11-25-610,4-9-124,-46 128 1,-30 9-7,76-179 0,-37 59 0,-10 19 0,49-84 0,-2-1 0,-34 45 0,30-45 0,1 1 0,-17 32 0,-53 107 0,-10 20 0,-27 35 0,41-76 0,53-88 0,-47 122 0,57-131-455,-3-1 0,-36 53 0,48-82-6371</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="358.27">13639 3897 24575,'-13'31'0,"2"-8"0,6 1 0,0 0 0,-2 35 0,-7 38 0,6-65 0,2 0 0,2 1 0,0-1 0,2 1 0,4 58 0,-2-87 0,0 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,0-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,6-2 0,13-1 0,-1-2 0,0 0 0,-1-2 0,40-17 0,-37 14 0,156-71 72,54-19-1434,-211 91 1247,-1-1 0,38-23 1,27-13-153,286-123-1351,-131 59 2758,-188 83-842,108-36 0,-126 50-1366,-4 0-4272</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2134.09">36482 828 24575,'0'751'-640,"-2"-716"381,-2 1 0,-1-1 0,-2 0 0,-1 0 0,-14 37 0,9-30 293,-2 36-232,12-60 119,0 1 0,-1-1 0,-10 29 0,-5-1 158,3 1-1,2 0 1,2 1 0,2 0 0,1 1-1,3 1 1,0 50 0,4-65-205,-1 1 0,-10 38 1,6-33-27,-3 44 0,8-40 180,3-28 16,-2 1 1,0-1-1,-1 0 0,0 1 1,-2-1-1,0 0 0,0-1 1,-8 18-1,5-19 100,0 0-1,1 1 1,0-1 0,1 1-1,1 1 1,1-1 0,0 1-1,1-1 1,0 1-1,2 0 1,0 0 0,1 0-1,0-1 1,1 1 0,6 21-1,-3-22-143,-1 0 0,-1 0 0,0 1 0,-1 0 0,-1-1 0,0 1 0,-2 0 0,1 0 0,-2 0 0,0-1 0,-8 29 0,-69 270 0,66-245 0,11-51 0,-2 0 0,1 0 0,-2-1 0,-13 34 0,0-4 0,1 1 0,-18 90 0,-17 159 0,35-208 0,11-64 0,1 1 0,-2 30 0,5 54 0,3-76 0,-1 1 0,-2 0 0,-2-1 0,-13 64 0,14-92 0,1 0 0,-1-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1-1 0,-1 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,-8 1 0,-11 4 0,0-1 0,0-2 0,-44 6 0,31-6 0,-28 1-583,-128-1 0,187-6 384,-26-1-6627</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2508.93">35156 4880 24575,'-2'7'0,"0"0"0,0 0 0,-1-1 0,1 1 0,-2-1 0,1 0 0,-7 10 0,1-1 0,-7 19 0,2 0 0,1 2 0,-14 63 0,7-24 0,11-41 0,2 1 0,1 0 0,2 1 0,1 0 0,2-1 0,6 70 0,-5-102 0,0 1 0,0-1 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,1 0 0,4-1 0,-1 0 0,0 0 0,0-1 0,0 1 0,0-2 0,0 1 0,0-1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,4-8 0,30-48 6,58-119-1,-33 53-197,-41 84 25,14-28-202,73-100 0,-2 22-64,71-89-1044,-170 226 1174,90-107-431,125-113 0,-146 161-756,115-77 0,176-72 673,-240 148 808,-50 21 17,-49 29 2,49-24 0,528-221 3449,-487 216-2656,27-8 611,-94 37-2249,-32 12-3652</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2134.09">36483 828 24575,'0'751'-640,"-2"-716"381,-2 1 0,-1-1 0,-2 0 0,-1 0 0,-14 37 0,9-30 293,-2 36-232,12-60 119,0 1 0,-1-1 0,-10 29 0,-5-1 158,3 1-1,2 0 1,2 1 0,2 0 0,1 1-1,3 1 1,0 50 0,4-65-205,-1 1 0,-10 38 1,6-33-27,-3 44 0,8-40 180,3-28 16,-2 1 1,0-1-1,-1 0 0,0 1 1,-2-1-1,0 0 0,0-1 1,-8 18-1,5-19 100,0 0-1,1 1 1,0-1 0,1 1-1,1 1 1,1-1 0,0 1-1,1-1 1,0 1-1,2 0 1,0 0 0,1 0-1,0-1 1,1 1 0,6 21-1,-3-22-143,-1 0 0,-1 0 0,0 1 0,-1 0 0,-1-1 0,0 1 0,-2 0 0,1 0 0,-2 0 0,0-1 0,-8 29 0,-69 270 0,66-245 0,11-51 0,-2 0 0,1 0 0,-2-1 0,-13 34 0,0-4 0,1 1 0,-18 90 0,-17 159 0,35-208 0,11-64 0,1 1 0,-2 30 0,5 54 0,3-76 0,-1 1 0,-2 0 0,-2-1 0,-13 64 0,14-92 0,1 0 0,-1-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1-1 0,-1 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,-8 1 0,-11 4 0,0-1 0,0-2 0,-44 6 0,31-6 0,-28 1-583,-128-1 0,187-6 384,-26-1-6627</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2508.93">35157 4880 24575,'-2'7'0,"0"0"0,0 0 0,-1-1 0,1 1 0,-2-1 0,1 0 0,-7 10 0,1-1 0,-7 19 0,2 0 0,1 2 0,-14 63 0,7-24 0,11-41 0,2 1 0,1 0 0,2 1 0,1 0 0,2-1 0,6 70 0,-5-102 0,0 1 0,0-1 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,1 0 0,4-1 0,-1 0 0,0 0 0,0-1 0,0 1 0,0-2 0,0 1 0,0-1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,4-8 0,30-48 6,58-119-1,-33 53-197,-41 84 25,14-28-202,73-100 0,-2 22-64,71-89-1044,-170 226 1174,90-107-431,125-113 0,-146 161-756,115-77 0,176-72 673,-240 148 808,-50 21 17,-49 29 2,49-24 0,528-221 3449,-487 216-2656,27-8 611,-94 37-2249,-32 12-3652</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6765.81">379 4644 24575,'6'0'0,"3"-7"0,6-1 0,6-1 0,7 3 0,-2 1-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9020.05">1 4211 24575,'37'0'0,"0"-3"0,0-1 0,53-12 0,141-25 0,-161 19 0,-50 14 0,0 2 0,1 0 0,25-3 0,75-10-319,-70 9 30,78-3 0,98-7-1149,2 0-550,-155 19 1660,185-13 303,-35-6-1991,327 14 0,-286 9 1203,3173-3-1364,-3113-20 1911,-26-1 855,117-9 426,-331 22-968,59-9-47,111-7 0,869 23 0,-530 3 0,1058-2 5734,-944 0-6264,-465-20-1627,-1 0 2072,686 21-2250,-678-20 1654,-31-1 558,-113 17-174,206-11 262,216-5 35,-219 14 0,-47-13 37,33-2-33,998 17-431,-667 5 285,-337-21 132,-41 1 63,823 14 714,-549 7-776,1247-3 1856,-1553-19-1847,-28 0 0,-37 18 121,-68 2-73,145-18 0,-103-5-107,155-20-27,-23 5 86,-150 19 0,178-7 0,-198 21 0,89-16 0,-92 9 0,29-7 211,65-6 210,7 4-421,21-1 0,853 20 720,-503 4-448,-280-1-559,309-6-754,-174-29 612,-151 11 171,80-2-432,140-14-760,-64 1 1422,387-49-1329,-392 31-613,-3 24 2080,-194 18 89,208-29-86,255-11 115,-196 14 728,-297 18-735,697-34-1911,442 52 4204,-649 6-1631,1194-3 1693,-1821 3-2055,78 14 0,20 1 299,206-18-772,54 2 13,-256 16-61,30 2 0,-69-19 0,-49-1 0,1 2 0,65 12 0,1 2 762,0-6 1,193-10-1,-129-3-335,664 3 3294,-635-20-4919,-147 10 580,80-1-1,1855 13-1230,-1972 0 1849,0 2 0,44 10 0,-41-6 0,64 4 0,-61-11 63,22 0 333,0 3-1,65 13 0,-113-14-347,35 7 521,-1 2 1,80 31-1,-85-27 106,69 16 0,-96-27-746,67 14 71,-27-6 0,97 34 0,-131-37 0,-7-2 0,0 0 0,1-2 0,-1 0 0,1-1 0,1-2 0,20 3 0,-16-3 0,1 1 0,0 2 0,-1 0 0,0 2 0,31 14 0,2 0 0,-47-17 0,-1-1 0,1 2 0,-1-1 0,0 1 0,9 9 0,33 20 0,-44-31 0,31 15 0,0-1 0,1-2 0,58 15 0,-66-22 0,0 2 0,0 0 0,31 18 0,-33-14 0,1-2 0,59 18 0,-66-24 0,0 0 0,-1 2 0,0 1 0,0 1 0,-1 0 0,28 21 0,-27-20-341,0 0 0,1-2-1,42 13 1,-40-15-6485</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9020.04">1 4211 24575,'37'0'0,"0"-3"0,0-1 0,53-12 0,141-25 0,-161 19 0,-50 14 0,0 2 0,1 0 0,25-3 0,75-10-319,-70 9 30,78-3 0,98-7-1149,2 0-550,-155 19 1660,185-13 303,-35-6-1991,327 14 0,-286 9 1203,3173-3-1364,-3113-20 1911,-26-1 855,117-9 426,-331 22-968,59-9-47,111-7 0,869 23 0,-530 3 0,1058-2 5734,-944 0-6264,-465-20-1627,-1 0 2072,686 21-2250,-678-20 1654,-31-1 558,-113 17-174,206-11 262,216-5 35,-219 14 0,-47-13 37,33-2-33,998 17-431,-667 5 285,-337-21 132,-41 1 63,823 14 714,-549 7-776,1247-3 1856,-1553-19-1847,-28 0 0,-37 18 121,-68 2-73,145-18 0,-103-5-107,156-20-27,-24 5 86,-150 19 0,178-7 0,-198 21 0,89-16 0,-92 9 0,29-7 211,65-6 210,7 4-421,21-1 0,853 20 720,-503 4-448,-280-1-559,309-6-754,-174-29 612,-151 11 171,80-2-432,140-14-760,-64 1 1422,387-49-1329,-392 31-613,-3 24 2080,-194 18 89,208-29-86,255-11 115,-196 14 728,-297 18-735,697-34-1911,442 52 4204,-649 6-1631,1194-3 1693,-1821 3-2055,78 14 0,20 1 299,206-18-772,54 2 13,-256 16-61,30 2 0,-69-19 0,-49-1 0,1 2 0,65 12 0,1 2 762,0-6 1,193-10-1,-129-3-335,664 3 3294,-635-20-4919,-147 10 580,80-1-1,1855 13-1230,-1972 0 1849,0 2 0,44 10 0,-41-6 0,64 4 0,-61-11 63,22 0 333,0 3-1,65 13 0,-113-14-347,35 7 521,-1 2 1,80 31-1,-85-27 106,69 16 0,-96-27-746,67 14 71,-27-6 0,97 34 0,-131-37 0,-7-2 0,0 0 0,1-2 0,-1 0 0,1-1 0,1-2 0,20 3 0,-16-3 0,1 1 0,0 2 0,-1 0 0,0 2 0,31 14 0,2 0 0,-47-17 0,-1-1 0,1 2 0,-1-1 0,0 1 0,9 9 0,33 20 0,-44-31 0,31 15 0,0-1 0,1-2 0,58 15 0,-66-22 0,0 2 0,0 0 0,31 18 0,-33-14 0,1-2 0,59 18 0,-66-24 0,0 0 0,-1 2 0,0 1 0,0 1 0,-1 0 0,28 21 0,-27-20-341,0 0 0,1-2-1,42 13 1,-40-15-6485</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -18161,8 +18169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A323" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H355" sqref="H355"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A164" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H192" sqref="H192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18176,15 +18184,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="2:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
@@ -18211,28 +18219,28 @@
       <c r="C6" s="2"/>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="6"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
     </row>
     <row r="139" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="G139" s="6"/>
+      <c r="G139" s="5"/>
     </row>
     <row r="140" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="G140" s="6"/>
+      <c r="G140" s="5"/>
     </row>
     <row r="141" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="G141" s="6" t="s">
+      <c r="G141" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -18240,7 +18248,7 @@
       <c r="D142" t="s">
         <v>7</v>
       </c>
-      <c r="G142" s="6"/>
+      <c r="G142" s="5"/>
       <c r="H142" t="s">
         <v>7</v>
       </c>
@@ -18249,7 +18257,7 @@
       <c r="D143" t="s">
         <v>8</v>
       </c>
-      <c r="G143" s="6"/>
+      <c r="G143" s="5"/>
       <c r="H143" t="s">
         <v>10</v>
       </c>
@@ -18258,565 +18266,571 @@
       <c r="D144" t="s">
         <v>9</v>
       </c>
-      <c r="G144" s="6"/>
+      <c r="G144" s="5"/>
       <c r="H144" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G145" s="6"/>
-    </row>
-    <row r="146" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G146" s="6"/>
-    </row>
-    <row r="147" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G147" s="6"/>
-    </row>
-    <row r="148" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G148" s="6"/>
-    </row>
-    <row r="149" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G149" s="6"/>
-    </row>
-    <row r="150" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G150" s="6"/>
-    </row>
-    <row r="151" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G151" s="6"/>
-    </row>
-    <row r="152" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G152" s="6"/>
-    </row>
-    <row r="153" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G153" s="6"/>
-    </row>
-    <row r="154" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G154" s="6"/>
-    </row>
-    <row r="155" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G155" s="6"/>
-    </row>
-    <row r="156" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G156" s="6"/>
-    </row>
-    <row r="157" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G157" s="6"/>
-    </row>
-    <row r="158" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G158" s="6"/>
-    </row>
-    <row r="159" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G159" s="6"/>
-    </row>
-    <row r="160" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G160" s="6"/>
+    <row r="145" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G145" s="5"/>
+    </row>
+    <row r="146" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G146" s="5"/>
+    </row>
+    <row r="147" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G147" s="5"/>
+    </row>
+    <row r="148" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G148" s="5"/>
+    </row>
+    <row r="149" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G149" s="5"/>
+    </row>
+    <row r="150" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G150" s="5"/>
+    </row>
+    <row r="151" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G151" s="5"/>
+    </row>
+    <row r="152" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G152" s="5"/>
+      <c r="I152" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G153" s="5"/>
+    </row>
+    <row r="154" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G154" s="5"/>
+    </row>
+    <row r="155" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G155" s="5"/>
+    </row>
+    <row r="156" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G156" s="5"/>
+    </row>
+    <row r="157" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G157" s="5"/>
+    </row>
+    <row r="158" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G158" s="5"/>
+    </row>
+    <row r="159" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G159" s="5"/>
+    </row>
+    <row r="160" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G160" s="5"/>
     </row>
     <row r="161" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G161" s="6"/>
+      <c r="G161" s="5"/>
     </row>
     <row r="162" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G162" s="6"/>
+      <c r="G162" s="5"/>
     </row>
     <row r="163" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G163" s="6"/>
+      <c r="G163" s="5"/>
     </row>
     <row r="164" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G164" s="6"/>
+      <c r="G164" s="5"/>
     </row>
     <row r="165" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G165" s="6"/>
+      <c r="G165" s="5"/>
     </row>
     <row r="166" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G166" s="6"/>
+      <c r="G166" s="5"/>
     </row>
     <row r="167" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G167" s="6"/>
+      <c r="G167" s="5"/>
     </row>
     <row r="168" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G168" s="6"/>
+      <c r="G168" s="5"/>
     </row>
     <row r="169" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G169" s="6"/>
+      <c r="G169" s="5"/>
     </row>
     <row r="170" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G170" s="6"/>
+      <c r="G170" s="5"/>
     </row>
     <row r="171" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G171" s="6"/>
+      <c r="G171" s="5"/>
     </row>
     <row r="172" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G172" s="6"/>
+      <c r="G172" s="5"/>
     </row>
     <row r="173" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G173" s="6"/>
+      <c r="G173" s="5"/>
     </row>
     <row r="174" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G174" s="6"/>
+      <c r="G174" s="5"/>
     </row>
     <row r="175" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G175" s="6"/>
+      <c r="G175" s="5"/>
     </row>
     <row r="176" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G176" s="6"/>
+      <c r="G176" s="5"/>
     </row>
     <row r="177" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G177" s="6"/>
+      <c r="G177" s="5"/>
     </row>
     <row r="178" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G178" s="6"/>
+      <c r="G178" s="5"/>
     </row>
     <row r="179" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G179" s="6"/>
+      <c r="G179" s="5"/>
     </row>
     <row r="180" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G180" s="6"/>
+      <c r="G180" s="5"/>
     </row>
     <row r="181" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G181" s="6"/>
+      <c r="G181" s="5"/>
     </row>
     <row r="182" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G182" s="6"/>
+      <c r="G182" s="5"/>
     </row>
     <row r="183" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G183" s="6"/>
+      <c r="G183" s="5"/>
     </row>
     <row r="184" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G184" s="6"/>
+      <c r="G184" s="5"/>
     </row>
     <row r="185" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G185" s="6"/>
+      <c r="G185" s="5"/>
     </row>
     <row r="186" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G186" s="6"/>
+      <c r="G186" s="5"/>
     </row>
     <row r="187" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G187" s="6"/>
+      <c r="G187" s="5"/>
     </row>
     <row r="188" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G188" s="6"/>
+      <c r="G188" s="5"/>
     </row>
     <row r="189" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G189" s="6"/>
+      <c r="G189" s="5"/>
     </row>
     <row r="190" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G190" s="6"/>
+      <c r="G190" s="5"/>
     </row>
     <row r="191" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G191" s="6"/>
+      <c r="G191" s="5"/>
     </row>
     <row r="192" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G192" s="6"/>
-    </row>
-    <row r="193" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G193" s="6"/>
-    </row>
-    <row r="194" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G194" s="6"/>
-    </row>
-    <row r="195" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G195" s="6"/>
-    </row>
-    <row r="196" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G196" s="6"/>
-    </row>
-    <row r="197" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G197" s="6"/>
-    </row>
-    <row r="198" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G198" s="6"/>
-    </row>
-    <row r="199" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G199" s="6"/>
-    </row>
-    <row r="200" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G200" s="6"/>
-    </row>
-    <row r="201" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G201" s="6"/>
-    </row>
-    <row r="202" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G202" s="6"/>
-    </row>
-    <row r="203" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G203" s="6"/>
-    </row>
-    <row r="204" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G204" s="6"/>
-    </row>
-    <row r="205" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G205" s="6"/>
-    </row>
-    <row r="206" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G206" s="6"/>
-    </row>
-    <row r="207" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G207" s="6"/>
-    </row>
-    <row r="208" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G208" s="6"/>
+      <c r="G192" s="5"/>
+    </row>
+    <row r="193" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G193" s="5"/>
+    </row>
+    <row r="194" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G194" s="5"/>
+    </row>
+    <row r="195" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G195" s="5"/>
+    </row>
+    <row r="196" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G196" s="5"/>
+    </row>
+    <row r="197" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G197" s="5"/>
+    </row>
+    <row r="198" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G198" s="5"/>
+      <c r="H198" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G199" s="5"/>
+    </row>
+    <row r="200" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G200" s="5"/>
+    </row>
+    <row r="201" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G201" s="5"/>
+    </row>
+    <row r="202" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G202" s="5"/>
+    </row>
+    <row r="203" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G203" s="5"/>
+    </row>
+    <row r="204" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G204" s="5"/>
+    </row>
+    <row r="205" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G205" s="5"/>
+    </row>
+    <row r="206" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G206" s="5"/>
+    </row>
+    <row r="207" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G207" s="5"/>
+    </row>
+    <row r="208" spans="7:8" x14ac:dyDescent="0.3">
+      <c r="G208" s="5"/>
     </row>
     <row r="209" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G209" s="6"/>
+      <c r="G209" s="5"/>
     </row>
     <row r="210" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G210" s="6"/>
+      <c r="G210" s="5"/>
     </row>
     <row r="211" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G211" s="6"/>
+      <c r="G211" s="5"/>
     </row>
     <row r="212" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G212" s="6"/>
+      <c r="G212" s="5"/>
     </row>
     <row r="213" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G213" s="6"/>
+      <c r="G213" s="5"/>
     </row>
     <row r="214" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G214" s="6"/>
+      <c r="G214" s="5"/>
     </row>
     <row r="215" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G215" s="6"/>
+      <c r="G215" s="5"/>
     </row>
     <row r="216" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G216" s="6"/>
+      <c r="G216" s="5"/>
     </row>
     <row r="217" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G217" s="6"/>
+      <c r="G217" s="5"/>
     </row>
     <row r="218" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G218" s="6"/>
+      <c r="G218" s="5"/>
     </row>
     <row r="219" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G219" s="6"/>
+      <c r="G219" s="5"/>
     </row>
     <row r="220" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G220" s="6"/>
+      <c r="G220" s="5"/>
     </row>
     <row r="221" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G221" s="6"/>
+      <c r="G221" s="5"/>
     </row>
     <row r="222" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G222" s="6"/>
+      <c r="G222" s="5"/>
     </row>
     <row r="223" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G223" s="6"/>
+      <c r="G223" s="5"/>
     </row>
     <row r="224" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G224" s="6"/>
+      <c r="G224" s="5"/>
     </row>
     <row r="225" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G225" s="6"/>
+      <c r="G225" s="5"/>
     </row>
     <row r="226" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G226" s="6"/>
+      <c r="G226" s="5"/>
     </row>
     <row r="227" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G227" s="6"/>
+      <c r="G227" s="5"/>
     </row>
     <row r="228" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G228" s="6"/>
+      <c r="G228" s="5"/>
     </row>
     <row r="229" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G229" s="6"/>
+      <c r="G229" s="5"/>
     </row>
     <row r="230" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G230" s="6"/>
+      <c r="G230" s="5"/>
     </row>
     <row r="231" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G231" s="6"/>
+      <c r="G231" s="5"/>
     </row>
     <row r="232" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G232" s="6"/>
+      <c r="G232" s="5"/>
     </row>
     <row r="233" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G233" s="6"/>
+      <c r="G233" s="5"/>
     </row>
     <row r="234" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G234" s="6"/>
+      <c r="G234" s="5"/>
     </row>
     <row r="235" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G235" s="6"/>
+      <c r="G235" s="5"/>
     </row>
     <row r="236" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G236" s="6"/>
+      <c r="G236" s="5"/>
     </row>
     <row r="237" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G237" s="6"/>
+      <c r="G237" s="5"/>
     </row>
     <row r="238" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G238" s="6"/>
+      <c r="G238" s="5"/>
     </row>
     <row r="239" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G239" s="6"/>
+      <c r="G239" s="5"/>
     </row>
     <row r="240" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G240" s="6"/>
+      <c r="G240" s="5"/>
     </row>
     <row r="241" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G241" s="6"/>
+      <c r="G241" s="5"/>
     </row>
     <row r="242" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G242" s="6"/>
+      <c r="G242" s="5"/>
     </row>
     <row r="243" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G243" s="6"/>
+      <c r="G243" s="5"/>
     </row>
     <row r="244" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G244" s="6"/>
+      <c r="G244" s="5"/>
     </row>
     <row r="245" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G245" s="6"/>
+      <c r="G245" s="5"/>
     </row>
     <row r="246" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G246" s="6"/>
+      <c r="G246" s="5"/>
     </row>
     <row r="247" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G247" s="6"/>
+      <c r="G247" s="5"/>
     </row>
     <row r="248" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G248" s="6"/>
+      <c r="G248" s="5"/>
     </row>
     <row r="249" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G249" s="6"/>
+      <c r="G249" s="5"/>
     </row>
     <row r="250" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G250" s="6"/>
+      <c r="G250" s="5"/>
     </row>
     <row r="251" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G251" s="6"/>
+      <c r="G251" s="5"/>
     </row>
     <row r="252" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G252" s="6"/>
+      <c r="G252" s="5"/>
     </row>
     <row r="253" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G253" s="6"/>
+      <c r="G253" s="5"/>
     </row>
     <row r="254" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G254" s="6"/>
+      <c r="G254" s="5"/>
     </row>
     <row r="255" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G255" s="6"/>
+      <c r="G255" s="5"/>
     </row>
     <row r="256" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G256" s="6"/>
+      <c r="G256" s="5"/>
     </row>
     <row r="257" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G257" s="6"/>
+      <c r="G257" s="5"/>
     </row>
     <row r="258" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G258" s="6"/>
+      <c r="G258" s="5"/>
     </row>
     <row r="259" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G259" s="6"/>
+      <c r="G259" s="5"/>
     </row>
     <row r="260" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G260" s="6"/>
+      <c r="G260" s="5"/>
     </row>
     <row r="261" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G261" s="6"/>
+      <c r="G261" s="5"/>
     </row>
     <row r="262" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G262" s="6"/>
+      <c r="G262" s="5"/>
     </row>
     <row r="263" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G263" s="6"/>
+      <c r="G263" s="5"/>
     </row>
     <row r="264" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G264" s="6"/>
+      <c r="G264" s="5"/>
     </row>
     <row r="265" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G265" s="6"/>
+      <c r="G265" s="5"/>
     </row>
     <row r="266" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G266" s="6"/>
+      <c r="G266" s="5"/>
     </row>
     <row r="267" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G267" s="6"/>
+      <c r="G267" s="5"/>
     </row>
     <row r="268" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G268" s="6"/>
+      <c r="G268" s="5"/>
     </row>
     <row r="269" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G269" s="6"/>
+      <c r="G269" s="5"/>
     </row>
     <row r="270" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G270" s="6"/>
+      <c r="G270" s="5"/>
     </row>
     <row r="271" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G271" s="6"/>
+      <c r="G271" s="5"/>
     </row>
     <row r="272" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G272" s="6"/>
+      <c r="G272" s="5"/>
     </row>
     <row r="273" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G273" s="6"/>
+      <c r="G273" s="5"/>
     </row>
     <row r="274" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G274" s="6"/>
+      <c r="G274" s="5"/>
     </row>
     <row r="275" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G275" s="6"/>
+      <c r="G275" s="5"/>
     </row>
     <row r="276" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G276" s="6"/>
+      <c r="G276" s="5"/>
     </row>
     <row r="277" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G277" s="6"/>
+      <c r="G277" s="5"/>
     </row>
     <row r="278" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G278" s="6"/>
+      <c r="G278" s="5"/>
     </row>
     <row r="279" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G279" s="6"/>
+      <c r="G279" s="5"/>
     </row>
     <row r="280" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G280" s="6"/>
+      <c r="G280" s="5"/>
     </row>
     <row r="281" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G281" s="6"/>
+      <c r="G281" s="5"/>
     </row>
     <row r="282" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G282" s="6"/>
+      <c r="G282" s="5"/>
     </row>
     <row r="283" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G283" s="6"/>
+      <c r="G283" s="5"/>
     </row>
     <row r="284" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G284" s="6"/>
+      <c r="G284" s="5"/>
     </row>
     <row r="285" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G285" s="6"/>
+      <c r="G285" s="5"/>
     </row>
     <row r="286" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G286" s="6"/>
+      <c r="G286" s="5"/>
     </row>
     <row r="287" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G287" s="6"/>
+      <c r="G287" s="5"/>
     </row>
     <row r="288" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G288" s="6"/>
+      <c r="G288" s="5"/>
     </row>
     <row r="289" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G289" s="6"/>
+      <c r="G289" s="5"/>
     </row>
     <row r="290" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G290" s="6"/>
+      <c r="G290" s="5"/>
     </row>
     <row r="291" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G291" s="6"/>
+      <c r="G291" s="5"/>
     </row>
     <row r="292" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G292" s="6"/>
+      <c r="G292" s="5"/>
     </row>
     <row r="293" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G293" s="6"/>
+      <c r="G293" s="5"/>
     </row>
     <row r="294" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G294" s="6"/>
+      <c r="G294" s="5"/>
     </row>
     <row r="295" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G295" s="6"/>
+      <c r="G295" s="5"/>
     </row>
     <row r="296" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G296" s="6"/>
+      <c r="G296" s="5"/>
     </row>
     <row r="297" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G297" s="6"/>
+      <c r="G297" s="5"/>
     </row>
     <row r="298" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G298" s="6"/>
+      <c r="G298" s="5"/>
     </row>
     <row r="299" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G299" s="6"/>
+      <c r="G299" s="5"/>
     </row>
     <row r="300" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G300" s="6"/>
+      <c r="G300" s="5"/>
     </row>
     <row r="301" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G301" s="6"/>
+      <c r="G301" s="5"/>
     </row>
     <row r="302" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G302" s="6"/>
+      <c r="G302" s="5"/>
     </row>
     <row r="303" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G303" s="6"/>
+      <c r="G303" s="5"/>
     </row>
     <row r="304" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G304" s="6"/>
+      <c r="G304" s="5"/>
     </row>
     <row r="305" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G305" s="6"/>
+      <c r="G305" s="5"/>
     </row>
     <row r="306" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G306" s="6"/>
+      <c r="G306" s="5"/>
     </row>
     <row r="307" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G307" s="6"/>
+      <c r="G307" s="5"/>
     </row>
     <row r="308" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G308" s="6"/>
+      <c r="G308" s="5"/>
     </row>
     <row r="309" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G309" s="6"/>
+      <c r="G309" s="5"/>
     </row>
     <row r="310" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G310" s="6"/>
+      <c r="G310" s="5"/>
     </row>
     <row r="311" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G311" s="6"/>
+      <c r="G311" s="5"/>
     </row>
     <row r="312" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G312" s="6"/>
+      <c r="G312" s="5"/>
     </row>
     <row r="313" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G313" s="6"/>
+      <c r="G313" s="5"/>
     </row>
     <row r="314" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G314" s="6"/>
+      <c r="G314" s="5"/>
     </row>
     <row r="315" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G315" s="6"/>
+      <c r="G315" s="5"/>
     </row>
     <row r="316" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G316" s="6"/>
+      <c r="G316" s="5"/>
     </row>
     <row r="317" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G317" s="6"/>
+      <c r="G317" s="5"/>
     </row>
     <row r="318" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G318" s="6"/>
+      <c r="G318" s="5"/>
     </row>
     <row r="319" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G319" s="6"/>
+      <c r="G319" s="5"/>
     </row>
     <row r="320" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G320" s="6"/>
+      <c r="G320" s="5"/>
     </row>
     <row r="321" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G321" s="6"/>
+      <c r="G321" s="5"/>
     </row>
     <row r="322" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G322" s="6"/>
+      <c r="G322" s="5"/>
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G323" s="6"/>
+      <c r="G323" s="5"/>
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G324" s="6"/>
+      <c r="G324" s="5"/>
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G325" s="6"/>
+      <c r="G325" s="5"/>
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G326" s="6"/>
+      <c r="G326" s="5"/>
     </row>
     <row r="327" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G327" s="6"/>
+      <c r="G327" s="5"/>
     </row>
     <row r="328" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F328">
         <v>1</v>
       </c>
-      <c r="G328" s="6"/>
+      <c r="G328" s="5"/>
       <c r="H328">
         <v>2</v>
       </c>
@@ -18830,7 +18844,7 @@
       <c r="D329" s="7"/>
       <c r="E329" s="7"/>
       <c r="F329" s="7"/>
-      <c r="G329" s="6"/>
+      <c r="G329" s="5"/>
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A330" s="7"/>
@@ -18839,7 +18853,7 @@
       <c r="D330" s="7"/>
       <c r="E330" s="7"/>
       <c r="F330" s="7"/>
-      <c r="G330" s="6"/>
+      <c r="G330" s="5"/>
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A331" s="7"/>
@@ -18848,7 +18862,7 @@
       <c r="D331" s="7"/>
       <c r="E331" s="7"/>
       <c r="F331" s="7"/>
-      <c r="G331" s="6"/>
+      <c r="G331" s="5"/>
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A332" s="7"/>
@@ -18857,7 +18871,7 @@
       <c r="D332" s="7"/>
       <c r="E332" s="7"/>
       <c r="F332" s="7"/>
-      <c r="G332" s="6"/>
+      <c r="G332" s="5"/>
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A333" s="7"/>
@@ -18866,7 +18880,7 @@
       <c r="D333" s="7"/>
       <c r="E333" s="7"/>
       <c r="F333" s="7"/>
-      <c r="G333" s="6"/>
+      <c r="G333" s="5"/>
     </row>
     <row r="334" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A334" s="7"/>
@@ -18875,7 +18889,7 @@
       <c r="D334" s="7"/>
       <c r="E334" s="7"/>
       <c r="F334" s="7"/>
-      <c r="G334" s="6"/>
+      <c r="G334" s="5"/>
     </row>
     <row r="335" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A335" s="7"/>
@@ -18884,218 +18898,218 @@
       <c r="D335" s="7"/>
       <c r="E335" s="7"/>
       <c r="F335" s="7"/>
-      <c r="G335" s="6"/>
+      <c r="G335" s="5"/>
     </row>
     <row r="336" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A336" s="6"/>
-      <c r="B336" s="6"/>
-      <c r="C336" s="6"/>
-      <c r="D336" s="6"/>
-      <c r="E336" s="6"/>
-      <c r="F336" s="6"/>
-      <c r="G336" s="6"/>
-      <c r="H336" s="6"/>
-      <c r="I336" s="6"/>
-      <c r="J336" s="6"/>
-      <c r="K336" s="6"/>
-      <c r="L336" s="6"/>
-      <c r="M336" s="6"/>
-      <c r="N336" s="6"/>
+      <c r="A336" s="5"/>
+      <c r="B336" s="5"/>
+      <c r="C336" s="5"/>
+      <c r="D336" s="5"/>
+      <c r="E336" s="5"/>
+      <c r="F336" s="5"/>
+      <c r="G336" s="5"/>
+      <c r="H336" s="5"/>
+      <c r="I336" s="5"/>
+      <c r="J336" s="5"/>
+      <c r="K336" s="5"/>
+      <c r="L336" s="5"/>
+      <c r="M336" s="5"/>
+      <c r="N336" s="5"/>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G337" s="6"/>
+      <c r="G337" s="5"/>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G338" s="6"/>
+      <c r="G338" s="5"/>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>1</v>
       </c>
-      <c r="G339" s="6"/>
+      <c r="G339" s="5"/>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>4</v>
       </c>
-      <c r="G340" s="6"/>
+      <c r="G340" s="5"/>
       <c r="H340" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G341" s="6"/>
+      <c r="G341" s="5"/>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G342" s="6"/>
+      <c r="G342" s="5"/>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G343" s="6"/>
+      <c r="G343" s="5"/>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F344">
         <v>3</v>
       </c>
-      <c r="G344" s="6"/>
+      <c r="G344" s="5"/>
       <c r="H344">
         <v>4</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G345" s="6"/>
+      <c r="G345" s="5"/>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G346" s="6"/>
+      <c r="G346" s="5"/>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G347" s="6"/>
+      <c r="G347" s="5"/>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G348" s="6"/>
+      <c r="G348" s="5"/>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G349" s="6"/>
+      <c r="G349" s="5"/>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G350" s="6"/>
+      <c r="G350" s="5"/>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G351" s="6"/>
+      <c r="G351" s="5"/>
       <c r="H351" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G352" s="6"/>
+      <c r="G352" s="5"/>
     </row>
     <row r="353" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G353" s="6"/>
+      <c r="G353" s="5"/>
     </row>
     <row r="354" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G354" s="6"/>
+      <c r="G354" s="5"/>
     </row>
     <row r="355" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G355" s="6"/>
+      <c r="G355" s="5"/>
     </row>
     <row r="356" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G356" s="6"/>
+      <c r="G356" s="5"/>
     </row>
     <row r="357" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G357" s="6"/>
+      <c r="G357" s="5"/>
     </row>
     <row r="358" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G358" s="6"/>
+      <c r="G358" s="5"/>
     </row>
     <row r="359" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G359" s="6"/>
+      <c r="G359" s="5"/>
     </row>
     <row r="360" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G360" s="6"/>
+      <c r="G360" s="5"/>
     </row>
     <row r="361" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G361" s="6"/>
+      <c r="G361" s="5"/>
     </row>
     <row r="362" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G362" s="6"/>
+      <c r="G362" s="5"/>
     </row>
     <row r="363" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G363" s="6"/>
+      <c r="G363" s="5"/>
     </row>
     <row r="364" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G364" s="6"/>
+      <c r="G364" s="5"/>
     </row>
     <row r="365" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G365" s="6"/>
+      <c r="G365" s="5"/>
     </row>
     <row r="366" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G366" s="6"/>
+      <c r="G366" s="5"/>
     </row>
     <row r="367" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G367" s="6"/>
+      <c r="G367" s="5"/>
     </row>
     <row r="368" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G368" s="6"/>
+      <c r="G368" s="5"/>
     </row>
     <row r="369" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G369" s="6"/>
+      <c r="G369" s="5"/>
     </row>
     <row r="370" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G370" s="6"/>
+      <c r="G370" s="5"/>
     </row>
     <row r="371" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G371" s="6"/>
+      <c r="G371" s="5"/>
     </row>
     <row r="372" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G372" s="6"/>
+      <c r="G372" s="5"/>
     </row>
     <row r="373" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G373" s="6"/>
+      <c r="G373" s="5"/>
     </row>
     <row r="374" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G374" s="6"/>
+      <c r="G374" s="5"/>
     </row>
     <row r="375" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G375" s="6"/>
+      <c r="G375" s="5"/>
     </row>
     <row r="376" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G376" s="6"/>
+      <c r="G376" s="5"/>
     </row>
     <row r="377" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G377" s="6"/>
+      <c r="G377" s="5"/>
     </row>
     <row r="378" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G378" s="6"/>
+      <c r="G378" s="5"/>
     </row>
     <row r="379" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G379" s="6"/>
+      <c r="G379" s="5"/>
     </row>
     <row r="380" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G380" s="6"/>
+      <c r="G380" s="5"/>
     </row>
     <row r="381" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G381" s="6"/>
+      <c r="G381" s="5"/>
     </row>
     <row r="382" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G382" s="6"/>
+      <c r="G382" s="5"/>
     </row>
     <row r="383" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G383" s="6"/>
+      <c r="G383" s="5"/>
     </row>
     <row r="384" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G384" s="6"/>
+      <c r="G384" s="5"/>
     </row>
     <row r="385" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G385" s="6"/>
+      <c r="G385" s="5"/>
     </row>
     <row r="386" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G386" s="6"/>
+      <c r="G386" s="5"/>
     </row>
     <row r="387" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G387" s="6"/>
+      <c r="G387" s="5"/>
     </row>
     <row r="388" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G388" s="6"/>
+      <c r="G388" s="5"/>
     </row>
     <row r="389" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G389" s="6"/>
+      <c r="G389" s="5"/>
     </row>
     <row r="390" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G390" s="6"/>
+      <c r="G390" s="5"/>
     </row>
     <row r="391" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G391" s="6"/>
+      <c r="G391" s="5"/>
     </row>
     <row r="392" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G392" s="6"/>
+      <c r="G392" s="5"/>
     </row>
     <row r="393" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G393" s="6"/>
+      <c r="G393" s="5"/>
     </row>
     <row r="394" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G394" s="6"/>
+      <c r="G394" s="5"/>
     </row>
     <row r="395" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G395" s="6"/>
+      <c r="G395" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/RPA_민경환_작업폴더/KS_Invoice 추출 및 정리/프로세스_스탭정의서_DK1.xlsx
+++ b/RPA_민경환_작업폴더/KS_Invoice 추출 및 정리/프로세스_스탭정의서_DK1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkh08\OneDrive\문서\uipath\alphaco5_teamproject2\alphaco5_teamproejct2\RPA_민경환_작업폴더\KS_Invoice 추출 및 정리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271B0FC6-66BB-4F66-B04A-1AEBA8208D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF115E0-4615-474C-8813-99685945CBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로세스스탭" sheetId="1" r:id="rId1"/>
@@ -15900,8 +15900,8 @@
               <a:schemeClr val="dk1"/>
             </a:solidFill>
             <a:effectLst/>
-            <a:latin typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-            <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
@@ -17682,7 +17682,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">0 988 24575,'1'-2'0,"-1"1"0,0 0 0,1-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,1-1 0,2 1 0,40-9 0,-40 9 0,53-6 0,1 3 0,94 8 0,-137-2 0,0 0 0,-1 1 0,1 0 0,-1 1 0,0 1 0,0 0 0,0 1 0,-1 0 0,0 2 0,-1-1 0,0 2 0,0-1 0,0 2 0,-2 0 0,1 0 0,-1 1 0,-1 0 0,0 1 0,0 0 0,-2 0 0,1 1 0,-2 0 0,0 0 0,0 1 0,6 27 0,4 22 0,-6-28 0,-2 1 0,-1 0 0,4 67 0,-10-60 0,1 12 0,-7 63 0,3-101 0,-1-1 0,0 1 0,-1-1 0,-1 0 0,0 0 0,-2-1 0,-14 30 0,-121 202 0,135-238 0,0 1 0,-1-2 0,0 1 0,0-1 0,-17 14 0,16-15 0,1 0 0,0 0 0,0 1 0,0 0 0,1 1 0,-6 10 0,12-19 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,3-1 0,9 0 0,0 0 0,0-1 0,16-5 0,-24 6 0,50-15 0,-20 6 0,1 1 0,0 1 0,36-2 0,-38 7 0,47-13 0,-48 9 0,53-5 0,-44 8 0,62-16 0,-20 3 0,-70 13 0,1 0 0,-1-1 0,0-1 0,0 0 0,-1 0 0,0-1 0,0-1 0,0 0 0,-1-1 0,0-1 0,-1 1 0,0-2 0,0 1 0,-1-1 0,14-24 0,-16 23 0,-1-1 0,-1 1 0,0-1 0,-1 0 0,-1-1 0,3-14 0,5-16 0,-4 6-121,-1 0 1,-1-1-1,-2 0 0,-4-68 0,1 74-640,-1-1-6065</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="354.91">1711 594 24575,'2'127'0,"-5"141"0,-14-172 0,11-71 0,1 1 0,-2 27 0,-13 129 0,10-104 0,-2 96 0,14 7 0,0-321 0,-5-182 0,-11 259-1365,6 38-5461</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="714.23">1598 632 24575,'30'-12'0,"-8"1"0,1 5 0,0 1 0,1 0 0,0 2 0,34 0 0,-46 3 0,1 1 0,-1-1 0,0 2 0,0 0 0,0 0 0,0 2 0,0-1 0,0 1 0,-1 1 0,16 9 0,-15-8 0,-1 1 0,0 1 0,-1 0 0,0 0 0,0 1 0,0 1 0,-1 0 0,-1 0 0,1 1 0,-2 0 0,1 0 0,9 22 0,17 31 0,-27-52 0,0 0 0,0 1 0,-1 0 0,0 0 0,-2 1 0,1 0 0,3 18 0,-3 26 0,-2 0 0,-2 0 0,-9 81 0,3-115 0,0-1 0,-1 0 0,-1 0 0,-2 0 0,0-1 0,-1 0 0,-14 21 0,-1 6 0,19-39 0,-1 1 0,0-1 0,0 0 0,-18 17 0,16-17 0,-1 0 0,1 1 0,-13 21 0,-18 42 0,-59 103 0,87-155 0,1 1 0,1 0 0,-8 27 0,10-28 0,0 0 0,-1 0 0,-22 37 0,-46 83 0,77-142 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,-1 0 0,-9-13 0,-1-16 0,3-12 0,3 0 0,1-1 0,2 1 0,2-1 0,7-61 0,9 31-84,-10 49-1197,1-4-5545</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1088.16">2510 712 24575,'97'-2'0,"108"5"0,-202-3 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,-1 0 0,1 3 0,-4 13 0,0 0 0,-1-1 0,-1 0 0,0 0 0,-11 21 0,7-16 0,-5 9-1365,0-7-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1088.15">2510 712 24575,'97'-2'0,"108"5"0,-202-3 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,-1 0 0,1 3 0,-4 13 0,0 0 0,-1-1 0,-1 0 0,0 0 0,-11 21 0,7-16 0,-5 9-1365,0-7-5461</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1431.13">2358 1542 24575,'6'-2'0,"1"0"0,-1 0 0,0-1 0,0 0 0,0 0 0,0-1 0,9-6 0,0 0 0,10-7 0,37-32 0,7-5 0,51-43 0,-109 89-68,0 0 0,0-1-1,0 0 1,-1-1 0,0-1 0,-1 0-1,-1 0 1,1 0 0,-2-1 0,1-1-1,-2 1 1,1-1 0,-2 0 0,0-1-1,0 1 1,-1-1 0,-1 0-1,0 0 1,1-23 0,-3 4-6758</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1857.16">3231 1 24575,'1'0'0,"1"0"0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1 2 0,7 42 0,-7-42 0,6 102 0,-7 146 0,-3-93 0,3 473 0,-2-608 0,0 0 0,-2 0 0,-7 31 0,4-26 0,-5 53 0,10 124-82,3-138-1201,-1-34-5543</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2204.31">2852 2253 24575,'-2'0'0,"0"1"0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1 3 0,-23 44 0,20-37 0,-10 19 0,3-10 0,1 0 0,1 1 0,1 0 0,1 1 0,1 0 0,0 0 0,2 1 0,-3 33 0,6-26 0,0 69 0,2-94 0,0 0 0,0-1 0,1 1 0,0 0 0,1-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 0 0,1 0 0,0 0 0,6 8 0,-6-10 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,0 0 0,0-1 0,-1 1 0,1 0 0,-1-1 0,6-4 0,6-2 0,-1 0 0,0-2 0,0 0 0,23-22 0,29-25 0,-48 43 0,0 0 0,-2-1 0,0-1 0,21-27 0,17-22 0,-40 51 0,-2 0 0,1-2 0,-2 1 0,15-27 0,-17 24 0,-1 1 0,-1-1 0,-1 0 0,0-1 0,-2 1 0,0-1 0,0 0 0,-2 0 0,0-37 0,-1 24 0,0 0 0,-1 0 0,-9-61 0,7 84 0,1 1 0,-2-1 0,1 0 0,-1 0 0,-1 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,0 1 0,0-1 0,-1 1 0,0 1 0,-12-12 0,-127-107 0,135 119 0,0 0 0,0 1 0,-1 1 0,1 0 0,-1 1 0,0 0 0,0 0 0,0 1 0,0 1 0,-13-1 0,4 1 0,1 1 0,-1 1 0,1 1 0,-39 9 0,48-8 0,0 1 0,0 1 0,0 0 0,1 0 0,0 1 0,0 0 0,0 0 0,-12 12 0,-60 71 0,33-33 0,9-9 0,3 1 0,-51 87 0,48-52-1365,26-55-5461</inkml:trace>
@@ -18169,8 +18169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A164" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H192" sqref="H192"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A194" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H198" sqref="H198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
